--- a/table/dredge/abu_env_d.xlsx
+++ b/table/dredge/abu_env_d.xlsx
@@ -444,34 +444,34 @@
         <v>3.914735043151315</v>
       </c>
       <c r="C2">
-        <v>0.10544705115821</v>
+        <v>0.1054470511582101</v>
       </c>
       <c r="D2">
-        <v>-0.0687122432867643</v>
+        <v>-0.06871224328676433</v>
       </c>
       <c r="F2">
         <v>-0.1406100710518359</v>
       </c>
       <c r="I2">
-        <v>0.7995875492539151</v>
+        <v>0.799587549253915</v>
       </c>
       <c r="J2">
         <v>5</v>
       </c>
       <c r="K2">
-        <v>36.95395391183372</v>
+        <v>36.95395391183371</v>
       </c>
       <c r="L2">
-        <v>-61.68568560144522</v>
+        <v>-61.68568560144519</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.3375935955128299</v>
+        <v>0.3375935955128298</v>
       </c>
       <c r="O2">
-        <v>0.7788552267629407</v>
+        <v>0.7788552267629406</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -482,16 +482,16 @@
         <v>3.914735043151315</v>
       </c>
       <c r="C3">
-        <v>0.100932971672058</v>
+        <v>0.1009329716720581</v>
       </c>
       <c r="D3">
-        <v>-0.07212826726453094</v>
+        <v>-0.07212826726453098</v>
       </c>
       <c r="E3">
-        <v>-0.01651997271967554</v>
+        <v>-0.01651997271967556</v>
       </c>
       <c r="F3">
-        <v>-0.1379490051858037</v>
+        <v>-0.1379490051858038</v>
       </c>
       <c r="I3">
         <v>0.8059300453980693</v>
@@ -500,10 +500,10 @@
         <v>6</v>
       </c>
       <c r="K3">
-        <v>37.4845743090833</v>
+        <v>37.48457430908329</v>
       </c>
       <c r="L3">
-        <v>-59.73837938739737</v>
+        <v>-59.73837938739734</v>
       </c>
       <c r="M3">
         <v>1.947306214047849</v>
@@ -523,34 +523,34 @@
         <v>3.914735043151315</v>
       </c>
       <c r="C4">
-        <v>0.09531218095792893</v>
+        <v>0.09531218095792902</v>
       </c>
       <c r="D4">
-        <v>-0.06445210276570398</v>
+        <v>-0.064452102765704</v>
       </c>
       <c r="F4">
-        <v>-0.1472649483259561</v>
+        <v>-0.1472649483259562</v>
       </c>
       <c r="H4">
-        <v>0.01322047354381757</v>
+        <v>0.01322047354381758</v>
       </c>
       <c r="I4">
-        <v>0.8005886825561615</v>
+        <v>0.8005886825561614</v>
       </c>
       <c r="J4">
         <v>6</v>
       </c>
       <c r="K4">
-        <v>37.03658398700107</v>
+        <v>37.03658398700106</v>
       </c>
       <c r="L4">
-        <v>-58.84239874323292</v>
+        <v>-58.84239874323289</v>
       </c>
       <c r="M4">
         <v>2.843286858212302</v>
       </c>
       <c r="N4">
-        <v>0.08146710855683489</v>
+        <v>0.08146710855683487</v>
       </c>
       <c r="O4">
         <v>0.7721013514927559</v>
@@ -564,37 +564,37 @@
         <v>3.914735043151315</v>
       </c>
       <c r="C5">
-        <v>0.1078747460937971</v>
+        <v>0.1078747460937972</v>
       </c>
       <c r="D5">
-        <v>-0.0681075412408957</v>
+        <v>-0.06810754124089573</v>
       </c>
       <c r="F5">
         <v>-0.1430517683697835</v>
       </c>
       <c r="G5">
-        <v>0.006299742646269453</v>
+        <v>0.006299742646269487</v>
       </c>
       <c r="I5">
-        <v>0.8003200484883969</v>
+        <v>0.8003200484883968</v>
       </c>
       <c r="J5">
         <v>6</v>
       </c>
       <c r="K5">
-        <v>37.01437120946203</v>
+        <v>37.01437120946201</v>
       </c>
       <c r="L5">
-        <v>-58.79797318815483</v>
+        <v>-58.7979731881548</v>
       </c>
       <c r="M5">
         <v>2.887712413290394</v>
       </c>
       <c r="N5">
-        <v>0.07967744804846985</v>
+        <v>0.07967744804846982</v>
       </c>
       <c r="O5">
-        <v>0.7717943411295964</v>
+        <v>0.7717943411295963</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
@@ -605,13 +605,13 @@
         <v>3.914735043151315</v>
       </c>
       <c r="B6">
-        <v>-0.003340676396562819</v>
+        <v>-0.00334067639656281</v>
       </c>
       <c r="C6">
         <v>0.107191327893877</v>
       </c>
       <c r="D6">
-        <v>-0.07023038565787455</v>
+        <v>-0.07023038565787454</v>
       </c>
       <c r="F6">
         <v>-0.1423596007394536</v>
@@ -623,16 +623,16 @@
         <v>6</v>
       </c>
       <c r="K6">
-        <v>36.96743049024703</v>
+        <v>36.96743049024701</v>
       </c>
       <c r="L6">
-        <v>-58.70409174972482</v>
+        <v>-58.7040917497248</v>
       </c>
       <c r="M6">
-        <v>2.981593851720398</v>
+        <v>2.981593851720397</v>
       </c>
       <c r="N6">
-        <v>0.07602375566954207</v>
+        <v>0.07602375566954206</v>
       </c>
       <c r="O6">
         <v>0.7711441963020744</v>
@@ -643,40 +643,40 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>3.914735043151314</v>
+        <v>3.914735043151315</v>
       </c>
       <c r="B7">
-        <v>-0.07434852769303145</v>
+        <v>-0.07434852769303138</v>
       </c>
       <c r="F7">
         <v>-0.3090774932401989</v>
       </c>
       <c r="G7">
-        <v>0.0713213865575924</v>
+        <v>0.07132138655759247</v>
       </c>
       <c r="H7">
         <v>0.214278249773671</v>
       </c>
       <c r="I7">
-        <v>0.7879870501386478</v>
+        <v>0.7879870501386477</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
       <c r="K7">
-        <v>36.02550121678685</v>
+        <v>36.02550121678684</v>
       </c>
       <c r="L7">
-        <v>-56.82023320280447</v>
+        <v>-56.82023320280445</v>
       </c>
       <c r="M7">
         <v>4.865452398640748</v>
       </c>
       <c r="N7">
-        <v>0.0296397567205095</v>
+        <v>0.02963975672050949</v>
       </c>
       <c r="O7">
-        <v>0.7576994858727404</v>
+        <v>0.7576994858727402</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
@@ -684,43 +684,43 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>3.914735043151314</v>
+        <v>3.914735043151315</v>
       </c>
       <c r="B8">
-        <v>-0.09130853854300228</v>
+        <v>-0.09130853854300208</v>
       </c>
       <c r="D8">
         <v>-0.03015211107136441</v>
       </c>
       <c r="F8">
-        <v>-0.3237078401698081</v>
+        <v>-0.323707840169808</v>
       </c>
       <c r="G8">
-        <v>0.06237644937970882</v>
+        <v>0.06237644937970883</v>
       </c>
       <c r="H8">
-        <v>0.2212331845628674</v>
+        <v>0.2212331845628671</v>
       </c>
       <c r="I8">
-        <v>0.8077970870933304</v>
+        <v>0.8077970870933302</v>
       </c>
       <c r="J8">
         <v>7</v>
       </c>
       <c r="K8">
-        <v>37.64408034986337</v>
+        <v>37.64408034986334</v>
       </c>
       <c r="L8">
-        <v>-56.80816069972674</v>
+        <v>-56.80816069972668</v>
       </c>
       <c r="M8">
-        <v>4.877524901718481</v>
+        <v>4.877524901718509</v>
       </c>
       <c r="N8">
-        <v>0.02946138259055984</v>
+        <v>0.02946138259055941</v>
       </c>
       <c r="O8">
-        <v>0.7722039550735769</v>
+        <v>0.7722039550735765</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
@@ -731,22 +731,22 @@
         <v>3.914735043151315</v>
       </c>
       <c r="C9">
-        <v>0.104117276115497</v>
+        <v>0.1041172761154971</v>
       </c>
       <c r="D9">
-        <v>-0.07149136846058865</v>
+        <v>-0.07149136846058868</v>
       </c>
       <c r="E9">
-        <v>-0.01764644524442996</v>
+        <v>-0.01764644524442999</v>
       </c>
       <c r="F9">
-        <v>-0.1412798055878985</v>
+        <v>-0.1412798055878986</v>
       </c>
       <c r="G9">
-        <v>0.009061852021907273</v>
+        <v>0.009061852021907344</v>
       </c>
       <c r="I9">
-        <v>0.80741619287348</v>
+        <v>0.8074161928734801</v>
       </c>
       <c r="J9">
         <v>7</v>
@@ -758,13 +758,13 @@
         <v>-56.74282833399708</v>
       </c>
       <c r="M9">
-        <v>4.94285726744814</v>
+        <v>4.942857267448112</v>
       </c>
       <c r="N9">
-        <v>0.02851454072890228</v>
+        <v>0.02851454072890268</v>
       </c>
       <c r="O9">
-        <v>0.7717525248870873</v>
+        <v>0.7717525248870876</v>
       </c>
       <c r="P9" t="b">
         <v>1</v>
@@ -775,19 +775,19 @@
         <v>3.914735043151315</v>
       </c>
       <c r="C10">
-        <v>0.09335650521753258</v>
+        <v>0.09335650521753261</v>
       </c>
       <c r="D10">
-        <v>-0.0687862284310692</v>
+        <v>-0.06878622843106921</v>
       </c>
       <c r="E10">
-        <v>-0.01603088597347862</v>
+        <v>-0.01603088597347865</v>
       </c>
       <c r="F10">
-        <v>-0.1430904904869713</v>
+        <v>-0.1430904904869714</v>
       </c>
       <c r="H10">
-        <v>0.01005748413502838</v>
+        <v>0.01005748413502844</v>
       </c>
       <c r="I10">
         <v>0.8065038836589988</v>
@@ -799,13 +799,13 @@
         <v>37.53343482053752</v>
       </c>
       <c r="L10">
-        <v>-56.58686964107504</v>
+        <v>-56.58686964107503</v>
       </c>
       <c r="M10">
-        <v>5.098815960370182</v>
+        <v>5.098815960370167</v>
       </c>
       <c r="N10">
-        <v>0.02637548055485179</v>
+        <v>0.02637548055485197</v>
       </c>
       <c r="O10">
         <v>0.7706712695217763</v>
@@ -819,40 +819,40 @@
         <v>3.914735043151315</v>
       </c>
       <c r="B11">
-        <v>-0.001874824013237667</v>
+        <v>-0.001874824013237621</v>
       </c>
       <c r="C11">
         <v>0.1019407403399421</v>
       </c>
       <c r="D11">
-        <v>-0.07295842437353851</v>
+        <v>-0.07295842437353849</v>
       </c>
       <c r="E11">
-        <v>-0.01641434941654439</v>
+        <v>-0.01641434941654442</v>
       </c>
       <c r="F11">
         <v>-0.1389478743044835</v>
       </c>
       <c r="I11">
-        <v>0.8059813202884977</v>
+        <v>0.8059813202884976</v>
       </c>
       <c r="J11">
         <v>7</v>
       </c>
       <c r="K11">
-        <v>37.48893432183392</v>
+        <v>37.48893432183391</v>
       </c>
       <c r="L11">
-        <v>-56.49786864366784</v>
+        <v>-56.49786864366781</v>
       </c>
       <c r="M11">
         <v>5.187816957777379</v>
       </c>
       <c r="N11">
-        <v>0.02522749101041581</v>
+        <v>0.0252274910104158</v>
       </c>
       <c r="O11">
-        <v>0.770051935156738</v>
+        <v>0.7700519351567379</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
@@ -863,40 +863,40 @@
         <v>3.914735043151315</v>
       </c>
       <c r="B12">
-        <v>-0.02497682961797739</v>
+        <v>-0.02497682961797734</v>
       </c>
       <c r="C12">
-        <v>0.0844626454919995</v>
+        <v>0.08446264549199962</v>
       </c>
       <c r="D12">
-        <v>-0.06576025654533733</v>
+        <v>-0.06576025654533736</v>
       </c>
       <c r="F12">
-        <v>-0.176032873810625</v>
+        <v>-0.1760328738106249</v>
       </c>
       <c r="H12">
-        <v>0.04438487151117979</v>
+        <v>0.04438487151117969</v>
       </c>
       <c r="I12">
-        <v>0.8041719736607569</v>
+        <v>0.8041719736607568</v>
       </c>
       <c r="J12">
         <v>7</v>
       </c>
       <c r="K12">
-        <v>37.33577446050682</v>
+        <v>37.3357744605068</v>
       </c>
       <c r="L12">
-        <v>-56.19154892101363</v>
+        <v>-56.19154892101361</v>
       </c>
       <c r="M12">
         <v>5.494136680431588</v>
       </c>
       <c r="N12">
-        <v>0.02164499936785275</v>
+        <v>0.02164499936785274</v>
       </c>
       <c r="O12">
-        <v>0.7679075243386748</v>
+        <v>0.7679075243386747</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
@@ -907,40 +907,40 @@
         <v>3.914735043151315</v>
       </c>
       <c r="C13">
-        <v>0.08748530503945501</v>
+        <v>0.08748530503945509</v>
       </c>
       <c r="D13">
-        <v>-0.05672214248582545</v>
+        <v>-0.05672214248582544</v>
       </c>
       <c r="F13">
-        <v>-0.1634301400984309</v>
+        <v>-0.163430140098431</v>
       </c>
       <c r="G13">
-        <v>0.01721091934047869</v>
+        <v>0.01721091934047875</v>
       </c>
       <c r="H13">
-        <v>0.03208202898259785</v>
+        <v>0.03208202898259793</v>
       </c>
       <c r="I13">
-        <v>0.8040181828243921</v>
+        <v>0.804018182824392</v>
       </c>
       <c r="J13">
         <v>7</v>
       </c>
       <c r="K13">
-        <v>37.32282149889885</v>
+        <v>37.32282149889883</v>
       </c>
       <c r="L13">
-        <v>-56.16564299779769</v>
+        <v>-56.16564299779766</v>
       </c>
       <c r="M13">
         <v>5.520042603647532</v>
       </c>
       <c r="N13">
-        <v>0.02136644049789855</v>
+        <v>0.02136644049789854</v>
       </c>
       <c r="O13">
-        <v>0.767725253717798</v>
+        <v>0.7677252537177979</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
@@ -951,40 +951,40 @@
         <v>3.914735043151315</v>
       </c>
       <c r="B14">
-        <v>-0.002097346019833619</v>
+        <v>-0.002097346019833584</v>
       </c>
       <c r="C14">
-        <v>0.108835717470047</v>
+        <v>0.1088357174700471</v>
       </c>
       <c r="D14">
-        <v>-0.06909407025489274</v>
+        <v>-0.0690940702548927</v>
       </c>
       <c r="F14">
         <v>-0.1440152640749656</v>
       </c>
       <c r="G14">
-        <v>0.00595170356459705</v>
+        <v>0.00595170356459709</v>
       </c>
       <c r="I14">
-        <v>0.8003823060388814</v>
+        <v>0.8003823060388813</v>
       </c>
       <c r="J14">
         <v>7</v>
       </c>
       <c r="K14">
-        <v>37.01951649194974</v>
+        <v>37.01951649194973</v>
       </c>
       <c r="L14">
-        <v>-55.55903298389949</v>
+        <v>-55.55903298389946</v>
       </c>
       <c r="M14">
         <v>6.126652617545737</v>
       </c>
       <c r="N14">
-        <v>0.01577642099245805</v>
+        <v>0.01577642099245804</v>
       </c>
       <c r="O14">
-        <v>0.763416066416452</v>
+        <v>0.7634160664164519</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
@@ -992,37 +992,37 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>3.914735043151314</v>
+        <v>3.914735043151315</v>
       </c>
       <c r="B15">
-        <v>-0.05968526670219438</v>
+        <v>-0.05968526670219439</v>
       </c>
       <c r="C15">
-        <v>0.05037730689612359</v>
+        <v>0.0503773068961236</v>
       </c>
       <c r="D15">
-        <v>-0.04880492361144865</v>
+        <v>-0.04880492361144862</v>
       </c>
       <c r="F15">
-        <v>-0.2552687068424056</v>
+        <v>-0.2552687068424057</v>
       </c>
       <c r="G15">
-        <v>0.041798873170895</v>
+        <v>0.04179887317089507</v>
       </c>
       <c r="H15">
-        <v>0.1334993604630568</v>
+        <v>0.1334993604630569</v>
       </c>
       <c r="I15">
-        <v>0.8174803769524678</v>
+        <v>0.8174803769524677</v>
       </c>
       <c r="J15">
         <v>8</v>
       </c>
       <c r="K15">
-        <v>38.49703071020359</v>
+        <v>38.49703071020357</v>
       </c>
       <c r="L15">
-        <v>-54.99406142040718</v>
+        <v>-54.99406142040715</v>
       </c>
       <c r="M15">
         <v>6.691624181038044</v>
@@ -1031,7 +1031,7 @@
         <v>0.01189395991848979</v>
       </c>
       <c r="O15">
-        <v>0.7753604639414988</v>
+        <v>0.7753604639414986</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
@@ -1039,19 +1039,19 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>3.914735043151314</v>
+        <v>3.914735043151315</v>
       </c>
       <c r="F16">
-        <v>-0.2224158207917749</v>
+        <v>-0.2224158207917748</v>
       </c>
       <c r="G16">
-        <v>0.04627149649855809</v>
+        <v>0.04627149649855814</v>
       </c>
       <c r="H16">
         <v>0.1346920796587204</v>
       </c>
       <c r="I16">
-        <v>0.7503384166956565</v>
+        <v>0.7503384166956566</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -1063,10 +1063,10 @@
         <v>-54.43463397078153</v>
       </c>
       <c r="M16">
-        <v>7.251051630663696</v>
+        <v>7.251051630663667</v>
       </c>
       <c r="N16">
-        <v>0.008991835298832912</v>
+        <v>0.008991835298833037</v>
       </c>
       <c r="O16">
         <v>0.7245113563538279</v>
@@ -1080,25 +1080,25 @@
         <v>3.914735043151315</v>
       </c>
       <c r="C17">
-        <v>0.08422651490645518</v>
+        <v>0.0842265149064552</v>
       </c>
       <c r="D17">
-        <v>-0.06032131720042483</v>
+        <v>-0.06032131720042481</v>
       </c>
       <c r="E17">
-        <v>-0.01744328291860248</v>
+        <v>-0.01744328291860251</v>
       </c>
       <c r="F17">
-        <v>-0.161223404700573</v>
+        <v>-0.1612234047005732</v>
       </c>
       <c r="G17">
-        <v>0.01969751573618229</v>
+        <v>0.01969751573618242</v>
       </c>
       <c r="H17">
-        <v>0.03136544196171018</v>
+        <v>0.03136544196171035</v>
       </c>
       <c r="I17">
-        <v>0.810950027927259</v>
+        <v>0.8109500279272591</v>
       </c>
       <c r="J17">
         <v>8</v>
@@ -1110,13 +1110,13 @@
         <v>-53.83398959027093</v>
       </c>
       <c r="M17">
-        <v>7.85169601117429</v>
+        <v>7.851696011174262</v>
       </c>
       <c r="N17">
-        <v>0.006659169561533495</v>
+        <v>0.006659169561533588</v>
       </c>
       <c r="O17">
-        <v>0.767323111295088</v>
+        <v>0.7673231112950881</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
@@ -1124,46 +1124,46 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>3.914735043151314</v>
+        <v>3.914735043151315</v>
       </c>
       <c r="B18">
-        <v>-0.08624185484502379</v>
+        <v>-0.08624185484502365</v>
       </c>
       <c r="D18">
-        <v>-0.03268195631087635</v>
+        <v>-0.03268195631087633</v>
       </c>
       <c r="E18">
-        <v>-0.01135170233679042</v>
+        <v>-0.01135170233679051</v>
       </c>
       <c r="F18">
-        <v>-0.3151384256313997</v>
+        <v>-0.3151384256313996</v>
       </c>
       <c r="G18">
-        <v>0.06216041348531427</v>
+        <v>0.06216041348531428</v>
       </c>
       <c r="H18">
         <v>0.2132969035673509</v>
       </c>
       <c r="I18">
-        <v>0.8106018407606682</v>
+        <v>0.8106018407606681</v>
       </c>
       <c r="J18">
         <v>8</v>
       </c>
       <c r="K18">
-        <v>37.88663348855508</v>
+        <v>37.88663348855506</v>
       </c>
       <c r="L18">
-        <v>-53.77326697711017</v>
+        <v>-53.77326697711013</v>
       </c>
       <c r="M18">
-        <v>7.912418624335054</v>
+        <v>7.912418624335068</v>
       </c>
       <c r="N18">
-        <v>0.006460026886204291</v>
+        <v>0.006460026886204243</v>
       </c>
       <c r="O18">
-        <v>0.7668945732438993</v>
+        <v>0.7668945732438992</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
@@ -1171,43 +1171,43 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>3.914735043151314</v>
+        <v>3.914735043151315</v>
       </c>
       <c r="B19">
-        <v>-0.07182990867374352</v>
+        <v>-0.07182990867374332</v>
       </c>
       <c r="E19">
-        <v>-0.004405553715924548</v>
+        <v>-0.004405553715924536</v>
       </c>
       <c r="F19">
-        <v>-0.305275336660749</v>
+        <v>-0.3052753366607488</v>
       </c>
       <c r="G19">
-        <v>0.07152881199830452</v>
+        <v>0.07152881199830446</v>
       </c>
       <c r="H19">
-        <v>0.2109717394363628</v>
+        <v>0.2109717394363625</v>
       </c>
       <c r="I19">
-        <v>0.7884305033176946</v>
+        <v>0.7884305033176945</v>
       </c>
       <c r="J19">
         <v>7</v>
       </c>
       <c r="K19">
-        <v>36.06004929679899</v>
+        <v>36.06004929679898</v>
       </c>
       <c r="L19">
-        <v>-53.64009859359798</v>
+        <v>-53.64009859359795</v>
       </c>
       <c r="M19">
         <v>8.045587007847239</v>
       </c>
       <c r="N19">
-        <v>0.006043898724987959</v>
+        <v>0.006043898724987957</v>
       </c>
       <c r="O19">
-        <v>0.7492509668950454</v>
+        <v>0.7492509668950453</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
@@ -1215,43 +1215,43 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>3.914735043151314</v>
+        <v>3.914735043151315</v>
       </c>
       <c r="B20">
-        <v>-0.08062187670183053</v>
+        <v>-0.08062187670183033</v>
       </c>
       <c r="C20">
-        <v>-0.007504057827130426</v>
+        <v>-0.007504057827130146</v>
       </c>
       <c r="F20">
-        <v>-0.3206201516026402</v>
+        <v>-0.3206201516026401</v>
       </c>
       <c r="G20">
-        <v>0.07356230105002035</v>
+        <v>0.07356230105002046</v>
       </c>
       <c r="H20">
-        <v>0.2279877124354265</v>
+        <v>0.2279877124354261</v>
       </c>
       <c r="I20">
-        <v>0.7883701186333146</v>
+        <v>0.7883701186333145</v>
       </c>
       <c r="J20">
         <v>7</v>
       </c>
       <c r="K20">
-        <v>36.0553406542503</v>
+        <v>36.05534065425029</v>
       </c>
       <c r="L20">
-        <v>-53.6306813085006</v>
+        <v>-53.63068130850057</v>
       </c>
       <c r="M20">
         <v>8.055004292944624</v>
       </c>
       <c r="N20">
-        <v>0.006015507061844733</v>
+        <v>0.006015507061844731</v>
       </c>
       <c r="O20">
-        <v>0.7491793998617062</v>
+        <v>0.7491793998617061</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
@@ -1262,43 +1262,43 @@
         <v>3.914735043151315</v>
       </c>
       <c r="B21">
-        <v>-0.0184172521127908</v>
+        <v>-0.01841725211279067</v>
       </c>
       <c r="C21">
-        <v>0.08562179890936256</v>
+        <v>0.08562179890936263</v>
       </c>
       <c r="D21">
-        <v>-0.06916253399497437</v>
+        <v>-0.06916253399497434</v>
       </c>
       <c r="E21">
-        <v>-0.01385493436318295</v>
+        <v>-0.01385493436318299</v>
       </c>
       <c r="F21">
-        <v>-0.1648698160564968</v>
+        <v>-0.1648698160564966</v>
       </c>
       <c r="H21">
-        <v>0.03346661336789802</v>
+        <v>0.03346661336789787</v>
       </c>
       <c r="I21">
-        <v>0.8083432079747477</v>
+        <v>0.8083432079747475</v>
       </c>
       <c r="J21">
         <v>8</v>
       </c>
       <c r="K21">
-        <v>37.69102979783794</v>
+        <v>37.69102979783792</v>
       </c>
       <c r="L21">
-        <v>-53.38205959567588</v>
+        <v>-53.38205959567584</v>
       </c>
       <c r="M21">
-        <v>8.303626005769338</v>
+        <v>8.303626005769353</v>
       </c>
       <c r="N21">
-        <v>0.005312326043810043</v>
+        <v>0.005312326043810003</v>
       </c>
       <c r="O21">
-        <v>0.7641147175073817</v>
+        <v>0.7641147175073815</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
@@ -1309,31 +1309,31 @@
         <v>3.914735043151315</v>
       </c>
       <c r="F22">
-        <v>-0.1861647158829202</v>
+        <v>-0.1861647158829201</v>
       </c>
       <c r="H22">
-        <v>0.104486395041601</v>
+        <v>0.1044863950416009</v>
       </c>
       <c r="I22">
-        <v>0.718309119900984</v>
+        <v>0.7183091199009839</v>
       </c>
       <c r="J22">
         <v>4</v>
       </c>
       <c r="K22">
-        <v>31.33681266083816</v>
+        <v>31.33681266083815</v>
       </c>
       <c r="L22">
-        <v>-53.2450538931049</v>
+        <v>-53.24505389310487</v>
       </c>
       <c r="M22">
         <v>8.440631708340327</v>
       </c>
       <c r="N22">
-        <v>0.004960601173537106</v>
+        <v>0.004960601173537104</v>
       </c>
       <c r="O22">
-        <v>0.699529727894383</v>
+        <v>0.6995297278943828</v>
       </c>
       <c r="P22" t="b">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>3.914735043151315</v>
       </c>
       <c r="B23">
-        <v>0.0001341935786133208</v>
+        <v>0.0001341935786133626</v>
       </c>
       <c r="C23">
         <v>0.1040535478419827</v>
       </c>
       <c r="D23">
-        <v>-0.07143026763332963</v>
+        <v>-0.07143026763332959</v>
       </c>
       <c r="E23">
-        <v>-0.01765697852913012</v>
+        <v>-0.01765697852913015</v>
       </c>
       <c r="F23">
         <v>-0.1412171009642635</v>
       </c>
       <c r="G23">
-        <v>0.009085769177277223</v>
+        <v>0.009085769177277268</v>
       </c>
       <c r="I23">
         <v>0.807416445213148</v>
@@ -1368,16 +1368,16 @@
         <v>8</v>
       </c>
       <c r="K23">
-        <v>37.61143578671472</v>
+        <v>37.61143578671471</v>
       </c>
       <c r="L23">
-        <v>-53.22287157342944</v>
+        <v>-53.22287157342942</v>
       </c>
       <c r="M23">
         <v>8.462814028015778</v>
       </c>
       <c r="N23">
-        <v>0.004905886339404569</v>
+        <v>0.004905886339404567</v>
       </c>
       <c r="O23">
         <v>0.7629740864161823</v>
@@ -1388,40 +1388,40 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>3.914735043151314</v>
+        <v>3.914735043151315</v>
       </c>
       <c r="B24">
-        <v>-0.06152092450511026</v>
+        <v>-0.0615209245051101</v>
       </c>
       <c r="D24">
-        <v>-0.03985185605234509</v>
+        <v>-0.03985185605234508</v>
       </c>
       <c r="F24">
-        <v>-0.2500228764423331</v>
+        <v>-0.250022876442333</v>
       </c>
       <c r="H24">
-        <v>0.1546552891541874</v>
+        <v>0.1546552891541872</v>
       </c>
       <c r="I24">
-        <v>0.7633573753821283</v>
+        <v>0.7633573753821282</v>
       </c>
       <c r="J24">
         <v>6</v>
       </c>
       <c r="K24">
-        <v>34.21208962183713</v>
+        <v>34.21208962183711</v>
       </c>
       <c r="L24">
-        <v>-53.19341001290503</v>
+        <v>-53.19341001290499</v>
       </c>
       <c r="M24">
-        <v>8.492275588540188</v>
+        <v>8.492275588540203</v>
       </c>
       <c r="N24">
-        <v>0.004834148480297281</v>
+        <v>0.004834148480297245</v>
       </c>
       <c r="O24">
-        <v>0.7295512861510038</v>
+        <v>0.7295512861510036</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
@@ -1429,22 +1429,22 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>3.914735043151314</v>
+        <v>3.914735043151315</v>
       </c>
       <c r="C25">
-        <v>0.03219663508354653</v>
+        <v>0.03219663508354661</v>
       </c>
       <c r="F25">
-        <v>-0.2042652107400032</v>
+        <v>-0.2042652107400031</v>
       </c>
       <c r="G25">
-        <v>0.04572545652671023</v>
+        <v>0.04572545652671025</v>
       </c>
       <c r="H25">
         <v>0.1046831331995314</v>
       </c>
       <c r="I25">
-        <v>0.7623246723438342</v>
+        <v>0.7623246723438343</v>
       </c>
       <c r="J25">
         <v>6</v>
@@ -1456,13 +1456,13 @@
         <v>-53.04971208222474</v>
       </c>
       <c r="M25">
-        <v>8.635973519220478</v>
+        <v>8.63597351922045</v>
       </c>
       <c r="N25">
-        <v>0.004499003970077855</v>
+        <v>0.004499003970077917</v>
       </c>
       <c r="O25">
-        <v>0.728371054107239</v>
+        <v>0.7283710541072392</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
@@ -1470,37 +1470,37 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>3.914735043151314</v>
+        <v>3.914735043151315</v>
       </c>
       <c r="D26">
-        <v>-0.02578945113696341</v>
+        <v>-0.02578945113696343</v>
       </c>
       <c r="F26">
-        <v>-0.19159267110272</v>
+        <v>-0.1915926711027201</v>
       </c>
       <c r="H26">
         <v>0.1030918516511361</v>
       </c>
       <c r="I26">
-        <v>0.7365862450138063</v>
+        <v>0.7365862450138062</v>
       </c>
       <c r="J26">
         <v>5</v>
       </c>
       <c r="K26">
-        <v>32.44370346222027</v>
+        <v>32.44370346222026</v>
       </c>
       <c r="L26">
-        <v>-52.66518470221832</v>
+        <v>-52.66518470221829</v>
       </c>
       <c r="M26">
         <v>9.020500899226903</v>
       </c>
       <c r="N26">
-        <v>0.003712079910446801</v>
+        <v>0.0037120799104468</v>
       </c>
       <c r="O26">
-        <v>0.7093365462221311</v>
+        <v>0.709336546222131</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
@@ -1508,40 +1508,40 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>3.914735043151314</v>
+        <v>3.914735043151315</v>
       </c>
       <c r="E27">
-        <v>-0.01556002899090564</v>
+        <v>-0.01556002899090573</v>
       </c>
       <c r="F27">
         <v>-0.2193557035036562</v>
       </c>
       <c r="G27">
-        <v>0.05000123667321343</v>
+        <v>0.05000123667321356</v>
       </c>
       <c r="H27">
-        <v>0.1325359822827749</v>
+        <v>0.1325359822827751</v>
       </c>
       <c r="I27">
-        <v>0.7564091817010796</v>
+        <v>0.7564091817010794</v>
       </c>
       <c r="J27">
         <v>6</v>
       </c>
       <c r="K27">
-        <v>33.73460019192712</v>
+        <v>33.7346001919271</v>
       </c>
       <c r="L27">
-        <v>-52.23843115308502</v>
+        <v>-52.23843115308497</v>
       </c>
       <c r="M27">
-        <v>9.447254448360205</v>
+        <v>9.447254448360219</v>
       </c>
       <c r="N27">
-        <v>0.002998810073218923</v>
+        <v>0.0029988100732189</v>
       </c>
       <c r="O27">
-        <v>0.7216104933726624</v>
+        <v>0.7216104933726621</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
@@ -1549,40 +1549,40 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>3.914735043151314</v>
+        <v>3.914735043151315</v>
       </c>
       <c r="D28">
-        <v>-0.01554317828628303</v>
+        <v>-0.01554317828628302</v>
       </c>
       <c r="F28">
-        <v>-0.219766976277168</v>
+        <v>-0.2197669762771683</v>
       </c>
       <c r="G28">
-        <v>0.03871479743766163</v>
+        <v>0.03871479743766169</v>
       </c>
       <c r="H28">
-        <v>0.1289186387920458</v>
+        <v>0.1289186387920459</v>
       </c>
       <c r="I28">
-        <v>0.7561231778328938</v>
+        <v>0.7561231778328937</v>
       </c>
       <c r="J28">
         <v>6</v>
       </c>
       <c r="K28">
-        <v>33.71523864266802</v>
+        <v>33.71523864266801</v>
       </c>
       <c r="L28">
-        <v>-52.19970805456681</v>
+        <v>-52.19970805456678</v>
       </c>
       <c r="M28">
         <v>9.485977546878409</v>
       </c>
       <c r="N28">
-        <v>0.002941306935521061</v>
+        <v>0.00294130693552106</v>
       </c>
       <c r="O28">
-        <v>0.7212836318090216</v>
+        <v>0.7212836318090214</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
@@ -1599,7 +1599,7 @@
         <v>-0.1678898319896154</v>
       </c>
       <c r="H29">
-        <v>0.07391022491110953</v>
+        <v>0.07391022491110964</v>
       </c>
       <c r="I29">
         <v>0.7310584917149423</v>
@@ -1614,13 +1614,13 @@
         <v>-51.97984381119652</v>
       </c>
       <c r="M29">
-        <v>9.705841790248698</v>
+        <v>9.70584179024867</v>
       </c>
       <c r="N29">
-        <v>0.002635102015438038</v>
+        <v>0.002635102015438075</v>
       </c>
       <c r="O29">
-        <v>0.7032369563751088</v>
+        <v>0.7032369563751087</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
@@ -1628,28 +1628,28 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>3.914735043151314</v>
+        <v>3.914735043151315</v>
       </c>
       <c r="B30">
-        <v>-0.05282341978448618</v>
+        <v>-0.05282341978448607</v>
       </c>
       <c r="C30">
-        <v>0.05226818578917004</v>
+        <v>0.05226818578917008</v>
       </c>
       <c r="D30">
-        <v>-0.05233857241304818</v>
+        <v>-0.05233857241304812</v>
       </c>
       <c r="E30">
-        <v>-0.01271436049891391</v>
+        <v>-0.01271436049891395</v>
       </c>
       <c r="F30">
-        <v>-0.2431018023220835</v>
+        <v>-0.2431018023220834</v>
       </c>
       <c r="G30">
-        <v>0.0407845386190098</v>
+        <v>0.04078453861900985</v>
       </c>
       <c r="H30">
-        <v>0.1213173773697559</v>
+        <v>0.1213173773697558</v>
       </c>
       <c r="I30">
         <v>0.8209852690839798</v>
@@ -1658,16 +1658,16 @@
         <v>9</v>
       </c>
       <c r="K30">
-        <v>38.81695899001009</v>
+        <v>38.81695899001007</v>
       </c>
       <c r="L30">
-        <v>-51.80783102349844</v>
+        <v>-51.80783102349841</v>
       </c>
       <c r="M30">
         <v>9.877854577946785</v>
       </c>
       <c r="N30">
-        <v>0.002417938948056483</v>
+        <v>0.002417938948056482</v>
       </c>
       <c r="O30">
         <v>0.7708611444274942</v>
@@ -1678,16 +1678,16 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>3.914735043151314</v>
+        <v>3.914735043151315</v>
       </c>
       <c r="B31">
-        <v>-0.0321020735183436</v>
+        <v>-0.03210207351834348</v>
       </c>
       <c r="F31">
         <v>-0.2151096143603463</v>
       </c>
       <c r="H31">
-        <v>0.131789367307149</v>
+        <v>0.1317893673071489</v>
       </c>
       <c r="I31">
         <v>0.7270781073444275</v>
@@ -1696,16 +1696,16 @@
         <v>5</v>
       </c>
       <c r="K31">
-        <v>31.85861943671125</v>
+        <v>31.85861943671123</v>
       </c>
       <c r="L31">
-        <v>-51.49501665120027</v>
+        <v>-51.49501665120025</v>
       </c>
       <c r="M31">
         <v>10.19066895024495</v>
       </c>
       <c r="N31">
-        <v>0.002067847718368003</v>
+        <v>0.002067847718368002</v>
       </c>
       <c r="O31">
         <v>0.6988448081041958</v>
@@ -1719,19 +1719,19 @@
         <v>3.914735043151315</v>
       </c>
       <c r="D32">
-        <v>-0.03202681652121544</v>
+        <v>-0.03202681652121547</v>
       </c>
       <c r="E32">
-        <v>-0.01950109203615945</v>
+        <v>-0.01950109203615947</v>
       </c>
       <c r="F32">
-        <v>-0.1854081349502061</v>
+        <v>-0.1854081349502062</v>
       </c>
       <c r="H32">
-        <v>0.09700095308708728</v>
+        <v>0.09700095308708731</v>
       </c>
       <c r="I32">
-        <v>0.7453794299800433</v>
+        <v>0.7453794299800434</v>
       </c>
       <c r="J32">
         <v>6</v>
@@ -1740,16 +1740,16 @@
         <v>33.00390374864407</v>
       </c>
       <c r="L32">
-        <v>-50.77703826651892</v>
+        <v>-50.77703826651891</v>
       </c>
       <c r="M32">
-        <v>10.90864733492631</v>
+        <v>10.90864733492628</v>
       </c>
       <c r="N32">
-        <v>0.001444147416778032</v>
+        <v>0.001444147416778052</v>
       </c>
       <c r="O32">
-        <v>0.7090050628343352</v>
+        <v>0.7090050628343353</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
@@ -1760,7 +1760,7 @@
         <v>3.914735043151315</v>
       </c>
       <c r="E33">
-        <v>-0.008646357905176132</v>
+        <v>-0.0086463579051762</v>
       </c>
       <c r="F33">
         <v>-0.1828405652515379</v>
@@ -1769,25 +1769,25 @@
         <v>0.1019353665293742</v>
       </c>
       <c r="I33">
-        <v>0.7202478927903775</v>
+        <v>0.7202478927903773</v>
       </c>
       <c r="J33">
         <v>5</v>
       </c>
       <c r="K33">
-        <v>31.45076859422289</v>
+        <v>31.45076859422287</v>
       </c>
       <c r="L33">
-        <v>-50.67931496622355</v>
+        <v>-50.67931496622352</v>
       </c>
       <c r="M33">
-        <v>11.00637063522167</v>
+        <v>11.00637063522168</v>
       </c>
       <c r="N33">
-        <v>0.001375280175406755</v>
+        <v>0.001375280175406749</v>
       </c>
       <c r="O33">
-        <v>0.6913080196307614</v>
+        <v>0.6913080196307611</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
@@ -1795,43 +1795,43 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>3.914735043151314</v>
+        <v>3.914735043151315</v>
       </c>
       <c r="D34">
         <v>-0.02193607641228685</v>
       </c>
       <c r="E34">
-        <v>-0.02172443681355703</v>
+        <v>-0.02172443681355705</v>
       </c>
       <c r="F34">
-        <v>-0.2144050662093192</v>
+        <v>-0.2144050662093194</v>
       </c>
       <c r="G34">
-        <v>0.04081408172724668</v>
+        <v>0.04081408172724677</v>
       </c>
       <c r="H34">
         <v>0.1235337494424891</v>
       </c>
       <c r="I34">
-        <v>0.766978262476179</v>
+        <v>0.7669782624761792</v>
       </c>
       <c r="J34">
         <v>7</v>
       </c>
       <c r="K34">
-        <v>34.46650884366807</v>
+        <v>34.46650884366808</v>
       </c>
       <c r="L34">
-        <v>-50.45301768733614</v>
+        <v>-50.45301768733616</v>
       </c>
       <c r="M34">
-        <v>11.23266791410908</v>
+        <v>11.23266791410904</v>
       </c>
       <c r="N34">
-        <v>0.001228149831433434</v>
+        <v>0.001228149831433459</v>
       </c>
       <c r="O34">
-        <v>0.7238260888606565</v>
+        <v>0.7238260888606568</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
@@ -1839,43 +1839,43 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>3.914735043151314</v>
+        <v>3.914735043151315</v>
       </c>
       <c r="B35">
-        <v>-0.0562860252693777</v>
+        <v>-0.05628602526937757</v>
       </c>
       <c r="D35">
         <v>-0.04248459067377965</v>
       </c>
       <c r="E35">
-        <v>-0.01197236193990082</v>
+        <v>-0.01197236193990091</v>
       </c>
       <c r="F35">
-        <v>-0.2412540805084975</v>
+        <v>-0.2412540805084973</v>
       </c>
       <c r="H35">
-        <v>0.146528283041667</v>
+        <v>0.1465282830416669</v>
       </c>
       <c r="I35">
-        <v>0.7664778089716952</v>
+        <v>0.7664778089716949</v>
       </c>
       <c r="J35">
         <v>7</v>
       </c>
       <c r="K35">
-        <v>34.43111030781417</v>
+        <v>34.43111030781414</v>
       </c>
       <c r="L35">
-        <v>-50.38222061562833</v>
+        <v>-50.38222061562828</v>
       </c>
       <c r="M35">
-        <v>11.3034649858169</v>
+        <v>11.30346498581691</v>
       </c>
       <c r="N35">
-        <v>0.001185435596465885</v>
+        <v>0.001185435596465876</v>
       </c>
       <c r="O35">
-        <v>0.7232329587812683</v>
+        <v>0.723232958781268</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
@@ -1883,46 +1883,46 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>3.914735043151314</v>
+        <v>3.914735043151315</v>
       </c>
       <c r="B36">
-        <v>-0.07857965596121549</v>
+        <v>-0.07857965596121531</v>
       </c>
       <c r="C36">
-        <v>-0.008382660635813222</v>
+        <v>-0.008382660635813147</v>
       </c>
       <c r="E36">
-        <v>-0.004857035767697383</v>
+        <v>-0.004857035767697526</v>
       </c>
       <c r="F36">
-        <v>-0.3177798063112121</v>
+        <v>-0.3177798063112118</v>
       </c>
       <c r="G36">
-        <v>0.07405335803880063</v>
+        <v>0.07405335803880071</v>
       </c>
       <c r="H36">
-        <v>0.2259475047661185</v>
+        <v>0.2259475047661184</v>
       </c>
       <c r="I36">
-        <v>0.7889038680597669</v>
+        <v>0.7889038680597665</v>
       </c>
       <c r="J36">
         <v>8</v>
       </c>
       <c r="K36">
-        <v>36.09700769124049</v>
+        <v>36.09700769124046</v>
       </c>
       <c r="L36">
-        <v>-50.19401538248097</v>
+        <v>-50.19401538248091</v>
       </c>
       <c r="M36">
-        <v>11.49167021896425</v>
+        <v>11.49167021896428</v>
       </c>
       <c r="N36">
-        <v>0.00107897086323535</v>
+        <v>0.001078970863235334</v>
       </c>
       <c r="O36">
-        <v>0.7401893760735592</v>
+        <v>0.7401893760735588</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
@@ -1930,22 +1930,22 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>3.914735043151314</v>
+        <v>3.914735043151315</v>
       </c>
       <c r="C37">
-        <v>0.0281112203505036</v>
+        <v>0.02811122035050359</v>
       </c>
       <c r="E37">
-        <v>-0.01053095466451085</v>
+        <v>-0.01053095466451093</v>
       </c>
       <c r="F37">
-        <v>-0.204497259431999</v>
+        <v>-0.2044972594319989</v>
       </c>
       <c r="G37">
-        <v>0.04831901392494106</v>
+        <v>0.04831901392494108</v>
       </c>
       <c r="H37">
-        <v>0.1070317166353677</v>
+        <v>0.1070317166353678</v>
       </c>
       <c r="I37">
         <v>0.7649124077217193</v>
@@ -1957,13 +1957,13 @@
         <v>34.32087267461985</v>
       </c>
       <c r="L37">
-        <v>-50.1617453492397</v>
+        <v>-50.16174534923969</v>
       </c>
       <c r="M37">
-        <v>11.52394025220553</v>
+        <v>11.5239402522055</v>
       </c>
       <c r="N37">
-        <v>0.001061701347047966</v>
+        <v>0.001061701347047981</v>
       </c>
       <c r="O37">
         <v>0.7213776684109265</v>
@@ -1977,7 +1977,7 @@
         <v>3.914735043151315</v>
       </c>
       <c r="C38">
-        <v>0.08159036023246556</v>
+        <v>0.08159036023246566</v>
       </c>
       <c r="F38">
         <v>-0.1254200718026383</v>
@@ -1989,16 +1989,16 @@
         <v>4</v>
       </c>
       <c r="K38">
-        <v>29.55247212510175</v>
+        <v>29.55247212510174</v>
       </c>
       <c r="L38">
-        <v>-49.67637282163207</v>
+        <v>-49.67637282163206</v>
       </c>
       <c r="M38">
-        <v>12.00931277981315</v>
+        <v>12.00931277981314</v>
       </c>
       <c r="N38">
-        <v>0.0008329233998535899</v>
+        <v>0.0008329233998535956</v>
       </c>
       <c r="O38">
         <v>0.6652142846015614</v>
@@ -2015,7 +2015,7 @@
         <v>0.03573932834621436</v>
       </c>
       <c r="C39">
-        <v>0.06856866451828181</v>
+        <v>0.06856866451828185</v>
       </c>
       <c r="F39">
         <v>-0.1102936423315585</v>
@@ -2027,16 +2027,16 @@
         <v>5</v>
       </c>
       <c r="K39">
-        <v>30.92578051526384</v>
+        <v>30.92578051526383</v>
       </c>
       <c r="L39">
-        <v>-49.62933880830546</v>
+        <v>-49.62933880830544</v>
       </c>
       <c r="M39">
-        <v>12.05634679313977</v>
+        <v>12.05634679313975</v>
       </c>
       <c r="N39">
-        <v>0.0008135640637419132</v>
+        <v>0.0008135640637419187</v>
       </c>
       <c r="O39">
         <v>0.6813283023759482</v>
@@ -2050,16 +2050,16 @@
         <v>3.914735043151315</v>
       </c>
       <c r="B40">
-        <v>-0.01502004655870594</v>
+        <v>-0.01502004655870571</v>
       </c>
       <c r="C40">
-        <v>0.02591697554280967</v>
+        <v>0.02591697554280994</v>
       </c>
       <c r="F40">
-        <v>-0.1854414260452028</v>
+        <v>-0.1854414260452026</v>
       </c>
       <c r="H40">
-        <v>0.0933919716263235</v>
+        <v>0.09339197162632301</v>
       </c>
       <c r="I40">
         <v>0.7323646858836104</v>
@@ -2068,16 +2068,16 @@
         <v>6</v>
       </c>
       <c r="K40">
-        <v>32.18136539580293</v>
+        <v>32.18136539580292</v>
       </c>
       <c r="L40">
-        <v>-49.13196156083663</v>
+        <v>-49.13196156083661</v>
       </c>
       <c r="M40">
-        <v>12.55372404060859</v>
+        <v>12.55372404060858</v>
       </c>
       <c r="N40">
-        <v>0.0006344357686463405</v>
+        <v>0.0006344357686463448</v>
       </c>
       <c r="O40">
         <v>0.694131069581269</v>
@@ -2091,19 +2091,19 @@
         <v>3.914735043151315</v>
       </c>
       <c r="C41">
-        <v>0.0319792916163047</v>
+        <v>0.03197929161630468</v>
       </c>
       <c r="E41">
-        <v>-0.003189895355272568</v>
+        <v>-0.003189895355272637</v>
       </c>
       <c r="F41">
-        <v>-0.1673351584595731</v>
+        <v>-0.167335158459573</v>
       </c>
       <c r="H41">
-        <v>0.074092919277415</v>
+        <v>0.07409291927741511</v>
       </c>
       <c r="I41">
-        <v>0.7313051519013025</v>
+        <v>0.7313051519013027</v>
       </c>
       <c r="J41">
         <v>6</v>
@@ -2115,13 +2115,13 @@
         <v>-49.00157669955136</v>
       </c>
       <c r="M41">
-        <v>12.68410890189386</v>
+        <v>12.68410890189383</v>
       </c>
       <c r="N41">
-        <v>0.0005943947256364968</v>
+        <v>0.000594394725636505</v>
       </c>
       <c r="O41">
-        <v>0.6929201736014886</v>
+        <v>0.6929201736014888</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
@@ -2129,40 +2129,40 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>3.914735043151314</v>
+        <v>3.914735043151315</v>
       </c>
       <c r="B42">
-        <v>-0.03051760218227484</v>
+        <v>-0.03051760218227473</v>
       </c>
       <c r="E42">
-        <v>-0.002642632058284092</v>
+        <v>-0.002642632058284097</v>
       </c>
       <c r="F42">
         <v>-0.2126649949028006</v>
       </c>
       <c r="H42">
-        <v>0.1296620822758196</v>
+        <v>0.1296620822758195</v>
       </c>
       <c r="I42">
-        <v>0.7272378512962352</v>
+        <v>0.727237851296235</v>
       </c>
       <c r="J42">
         <v>6</v>
       </c>
       <c r="K42">
-        <v>31.86827988151207</v>
+        <v>31.86827988151205</v>
       </c>
       <c r="L42">
-        <v>-48.50579053225491</v>
+        <v>-48.50579053225486</v>
       </c>
       <c r="M42">
-        <v>13.17989506919032</v>
+        <v>13.17989506919033</v>
       </c>
       <c r="N42">
-        <v>0.0004638914293103974</v>
+        <v>0.000463891429310394</v>
       </c>
       <c r="O42">
-        <v>0.6882718300528402</v>
+        <v>0.68827183005284</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
@@ -2173,16 +2173,16 @@
         <v>3.914735043151315</v>
       </c>
       <c r="B43">
-        <v>0.03766659373053074</v>
+        <v>0.03766659373053073</v>
       </c>
       <c r="C43">
-        <v>0.07572639945824676</v>
+        <v>0.07572639945824683</v>
       </c>
       <c r="F43">
         <v>-0.1171523229000536</v>
       </c>
       <c r="G43">
-        <v>0.01877264475301938</v>
+        <v>0.01877264475301944</v>
       </c>
       <c r="I43">
         <v>0.7177133858273668</v>
@@ -2197,10 +2197,10 @@
         <v>-47.37313972122605</v>
       </c>
       <c r="M43">
-        <v>14.31254588021917</v>
+        <v>14.31254588021914</v>
       </c>
       <c r="N43">
-        <v>0.0002633081793505954</v>
+        <v>0.0002633081793505991</v>
       </c>
       <c r="O43">
         <v>0.6773867266598477</v>
@@ -2214,13 +2214,13 @@
         <v>3.914735043151315</v>
       </c>
       <c r="C44">
-        <v>0.08774928531635484</v>
+        <v>0.08774928531635497</v>
       </c>
       <c r="F44">
         <v>-0.1314335986387211</v>
       </c>
       <c r="G44">
-        <v>0.01470995237120968</v>
+        <v>0.0147099523712097</v>
       </c>
       <c r="I44">
         <v>0.6901800777106293</v>
@@ -2229,16 +2229,16 @@
         <v>5</v>
       </c>
       <c r="K44">
-        <v>29.76632726616953</v>
+        <v>29.76632726616952</v>
       </c>
       <c r="L44">
-        <v>-47.31043231011685</v>
+        <v>-47.31043231011682</v>
       </c>
       <c r="M44">
-        <v>14.37525329132838</v>
+        <v>14.37525329132837</v>
       </c>
       <c r="N44">
-        <v>0.0002551805733209136</v>
+        <v>0.0002551805733209144</v>
       </c>
       <c r="O44">
         <v>0.6581297409220737</v>
@@ -2252,25 +2252,25 @@
         <v>3.914735043151315</v>
       </c>
       <c r="C45">
-        <v>0.08098584435485269</v>
+        <v>0.08098584435485277</v>
       </c>
       <c r="E45">
-        <v>-0.001751997843249312</v>
+        <v>-0.001751997843249361</v>
       </c>
       <c r="F45">
-        <v>-0.1250577687055479</v>
+        <v>-0.1250577687055478</v>
       </c>
       <c r="I45">
-        <v>0.6862128815256663</v>
+        <v>0.6862128815256661</v>
       </c>
       <c r="J45">
         <v>5</v>
       </c>
       <c r="K45">
-        <v>29.55638858409116</v>
+        <v>29.55638858409115</v>
       </c>
       <c r="L45">
-        <v>-46.89055494596011</v>
+        <v>-46.89055494596008</v>
       </c>
       <c r="M45">
         <v>14.79513065548512</v>
@@ -2279,7 +2279,7 @@
         <v>0.0002068580363275593</v>
       </c>
       <c r="O45">
-        <v>0.6537521451317697</v>
+        <v>0.6537521451317694</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
@@ -2290,37 +2290,37 @@
         <v>3.914735043151315</v>
       </c>
       <c r="B46">
-        <v>0.03704780481557427</v>
+        <v>0.0370478048155743</v>
       </c>
       <c r="C46">
-        <v>0.06560831551599258</v>
+        <v>0.0656083155159926</v>
       </c>
       <c r="E46">
-        <v>-0.007197936787363794</v>
+        <v>-0.007197936787363843</v>
       </c>
       <c r="F46">
-        <v>-0.1082513464888005</v>
+        <v>-0.1082513464888004</v>
       </c>
       <c r="I46">
-        <v>0.7124274942700641</v>
+        <v>0.7124274942700639</v>
       </c>
       <c r="J46">
         <v>6</v>
       </c>
       <c r="K46">
-        <v>30.99584474054083</v>
+        <v>30.99584474054081</v>
       </c>
       <c r="L46">
-        <v>-46.76092025031242</v>
+        <v>-46.76092025031238</v>
       </c>
       <c r="M46">
-        <v>14.9247653511328</v>
+        <v>14.92476535113281</v>
       </c>
       <c r="N46">
-        <v>0.0001938753439003438</v>
+        <v>0.0001938753439003424</v>
       </c>
       <c r="O46">
-        <v>0.6713457077372161</v>
+        <v>0.6713457077372159</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
@@ -2331,22 +2331,22 @@
         <v>3.914735043151315</v>
       </c>
       <c r="B47">
-        <v>0.07300562882373768</v>
+        <v>0.07300562882373772</v>
       </c>
       <c r="C47">
-        <v>0.1664102355285712</v>
+        <v>0.1664102355285713</v>
       </c>
       <c r="D47">
-        <v>-0.08451062010454979</v>
+        <v>-0.08451062010454977</v>
       </c>
       <c r="G47">
-        <v>-0.03930189858236281</v>
+        <v>-0.03930189858236276</v>
       </c>
       <c r="H47">
         <v>-0.1495813443490299</v>
       </c>
       <c r="I47">
-        <v>0.7342920641638661</v>
+        <v>0.7342920641638662</v>
       </c>
       <c r="J47">
         <v>7</v>
@@ -2358,13 +2358,13 @@
         <v>-46.12124045729996</v>
       </c>
       <c r="M47">
-        <v>15.56444514414526</v>
+        <v>15.56444514414523</v>
       </c>
       <c r="N47">
-        <v>0.0001408049358431946</v>
+        <v>0.0001408049358431965</v>
       </c>
       <c r="O47">
-        <v>0.6850868908608783</v>
+        <v>0.6850868908608785</v>
       </c>
       <c r="P47" t="b">
         <v>0</v>
@@ -2375,31 +2375,31 @@
         <v>3.914735043151315</v>
       </c>
       <c r="B48">
-        <v>-0.01428054749263517</v>
+        <v>-0.01428054749263495</v>
       </c>
       <c r="C48">
-        <v>0.02572152480612184</v>
+        <v>0.02572152480612195</v>
       </c>
       <c r="E48">
-        <v>-0.001448214860362751</v>
+        <v>-0.001448214860362852</v>
       </c>
       <c r="F48">
-        <v>-0.1843254662221884</v>
+        <v>-0.1843254662221881</v>
       </c>
       <c r="H48">
-        <v>0.09251574797077065</v>
+        <v>0.09251574797077039</v>
       </c>
       <c r="I48">
-        <v>0.7324123604456234</v>
+        <v>0.7324123604456232</v>
       </c>
       <c r="J48">
         <v>7</v>
       </c>
       <c r="K48">
-        <v>32.18430484475555</v>
+        <v>32.18430484475554</v>
       </c>
       <c r="L48">
-        <v>-45.8886096895111</v>
+        <v>-45.88860968951107</v>
       </c>
       <c r="M48">
         <v>15.79707591193412</v>
@@ -2408,7 +2408,7 @@
         <v>0.0001253437690458908</v>
       </c>
       <c r="O48">
-        <v>0.6828590938614796</v>
+        <v>0.6828590938614794</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
@@ -2419,13 +2419,13 @@
         <v>3.914735043151315</v>
       </c>
       <c r="B49">
-        <v>0.08832217772172143</v>
+        <v>0.08832217772172146</v>
       </c>
       <c r="C49">
         <v>0.1709762758060948</v>
       </c>
       <c r="D49">
-        <v>-0.07062858773898843</v>
+        <v>-0.07062858773898839</v>
       </c>
       <c r="H49">
         <v>-0.1466363356349307</v>
@@ -2437,16 +2437,16 @@
         <v>6</v>
       </c>
       <c r="K49">
-        <v>30.55888906408359</v>
+        <v>30.55888906408358</v>
       </c>
       <c r="L49">
-        <v>-45.88700889739795</v>
+        <v>-45.88700889739793</v>
       </c>
       <c r="M49">
-        <v>15.79867670404727</v>
+        <v>15.79867670404726</v>
       </c>
       <c r="N49">
-        <v>0.0001252434845264509</v>
+        <v>0.0001252434845264517</v>
       </c>
       <c r="O49">
         <v>0.6625259639540126</v>
@@ -2460,16 +2460,16 @@
         <v>3.914735043151315</v>
       </c>
       <c r="B50">
-        <v>0.08688895257516119</v>
+        <v>0.0868889525751612</v>
       </c>
       <c r="C50">
         <v>0.1610573430060913</v>
       </c>
       <c r="D50">
-        <v>-0.07771992567663966</v>
+        <v>-0.07771992567663961</v>
       </c>
       <c r="E50">
-        <v>-0.03175959404254628</v>
+        <v>-0.03175959404254629</v>
       </c>
       <c r="H50">
         <v>-0.1438964036345233</v>
@@ -2481,16 +2481,16 @@
         <v>7</v>
       </c>
       <c r="K50">
-        <v>31.9588018123845</v>
+        <v>31.95880181238449</v>
       </c>
       <c r="L50">
-        <v>-45.43760362476901</v>
+        <v>-45.43760362476898</v>
       </c>
       <c r="M50">
         <v>16.24808197667621</v>
       </c>
       <c r="N50">
-        <v>0.0001000386971414573</v>
+        <v>0.0001000386971414572</v>
       </c>
       <c r="O50">
         <v>0.6784950229017428</v>
@@ -2510,10 +2510,10 @@
         <v>0.1590500631056048</v>
       </c>
       <c r="D51">
-        <v>-0.08821496732482514</v>
+        <v>-0.08821496732482512</v>
       </c>
       <c r="E51">
-        <v>-0.02571149198255311</v>
+        <v>-0.02571149198255313</v>
       </c>
       <c r="G51">
         <v>-0.03353612400094381</v>
@@ -2528,16 +2528,16 @@
         <v>8</v>
       </c>
       <c r="K51">
-        <v>33.26639397071363</v>
+        <v>33.26639397071362</v>
       </c>
       <c r="L51">
-        <v>-44.53278794142726</v>
+        <v>-44.53278794142723</v>
       </c>
       <c r="M51">
         <v>17.15289766001796</v>
       </c>
       <c r="N51">
-        <v>6.363408413563116e-005</v>
+        <v>6.363408413563113e-05</v>
       </c>
       <c r="O51">
         <v>0.6915667831854755</v>
@@ -2551,40 +2551,40 @@
         <v>3.914735043151315</v>
       </c>
       <c r="B52">
-        <v>0.03979303049592132</v>
+        <v>0.03979303049592135</v>
       </c>
       <c r="C52">
-        <v>0.07221706247756256</v>
+        <v>0.07221706247756259</v>
       </c>
       <c r="E52">
-        <v>-0.01049947385454986</v>
+        <v>-0.01049947385454991</v>
       </c>
       <c r="F52">
         <v>-0.1149483354630808</v>
       </c>
       <c r="G52">
-        <v>0.02089404718970141</v>
+        <v>0.02089404718970145</v>
       </c>
       <c r="I52">
-        <v>0.7202340185143172</v>
+        <v>0.7202340185143171</v>
       </c>
       <c r="J52">
         <v>7</v>
       </c>
       <c r="K52">
-        <v>31.4499502987659</v>
+        <v>31.44995029876589</v>
       </c>
       <c r="L52">
-        <v>-44.41990059753181</v>
+        <v>-44.41990059753178</v>
       </c>
       <c r="M52">
-        <v>17.26578500391342</v>
+        <v>17.26578500391341</v>
       </c>
       <c r="N52">
-        <v>6.014182776473883e-005</v>
+        <v>6.014182776473882e-05</v>
       </c>
       <c r="O52">
-        <v>0.668425503424376</v>
+        <v>0.6684255034243758</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
@@ -2595,16 +2595,16 @@
         <v>3.914735043151315</v>
       </c>
       <c r="C53">
-        <v>0.08670070596591689</v>
+        <v>0.086700705965917</v>
       </c>
       <c r="E53">
-        <v>-0.003889476349933648</v>
+        <v>-0.003889476349933697</v>
       </c>
       <c r="F53">
         <v>-0.1309158094213657</v>
       </c>
       <c r="G53">
-        <v>0.01541085129772121</v>
+        <v>0.01541085129772122</v>
       </c>
       <c r="I53">
         <v>0.6905380246263682</v>
@@ -2616,13 +2616,13 @@
         <v>29.7854013737438</v>
       </c>
       <c r="L53">
-        <v>-44.34003351671838</v>
+        <v>-44.34003351671836</v>
       </c>
       <c r="M53">
-        <v>17.34565208472684</v>
+        <v>17.34565208472683</v>
       </c>
       <c r="N53">
-        <v>5.778747337203908e-005</v>
+        <v>5.778747337203948e-05</v>
       </c>
       <c r="O53">
         <v>0.6463291710015636</v>
@@ -2651,13 +2651,13 @@
         <v>25.41843796462382</v>
       </c>
       <c r="L54">
-        <v>-41.40830450067622</v>
+        <v>-41.4083045006762</v>
       </c>
       <c r="M54">
-        <v>20.27738110076901</v>
+        <v>20.27738110076899</v>
       </c>
       <c r="N54">
-        <v>1.334187413503176e-005</v>
+        <v>1.334187413503185e-05</v>
       </c>
       <c r="O54">
         <v>0.5698912014752078</v>
@@ -2674,10 +2674,10 @@
         <v>0.06659914580447007</v>
       </c>
       <c r="E55">
-        <v>-0.03087568555023196</v>
+        <v>-0.03087568555023195</v>
       </c>
       <c r="F55">
-        <v>-0.09334536844907826</v>
+        <v>-0.09334536844907831</v>
       </c>
       <c r="I55">
         <v>0.6232140108681714</v>
@@ -2686,16 +2686,16 @@
         <v>5</v>
       </c>
       <c r="K55">
-        <v>26.53750619830621</v>
+        <v>26.5375061983062</v>
       </c>
       <c r="L55">
-        <v>-40.8527901743902</v>
+        <v>-40.85279017439019</v>
       </c>
       <c r="M55">
-        <v>20.83289542705502</v>
+        <v>20.83289542705501</v>
       </c>
       <c r="N55">
-        <v>1.010621273848514e-005</v>
+        <v>1.010621273848521e-05</v>
       </c>
       <c r="O55">
         <v>0.5842361499234995</v>
@@ -2712,10 +2712,10 @@
         <v>0.105588269654878</v>
       </c>
       <c r="C56">
-        <v>0.1128325905722958</v>
+        <v>0.1128325905722959</v>
       </c>
       <c r="H56">
-        <v>-0.1048011111873736</v>
+        <v>-0.1048011111873735</v>
       </c>
       <c r="I56">
         <v>0.6215483187312212</v>
@@ -2724,16 +2724,16 @@
         <v>5</v>
       </c>
       <c r="K56">
-        <v>26.46472390499512</v>
+        <v>26.46472390499511</v>
       </c>
       <c r="L56">
-        <v>-40.70722558776802</v>
+        <v>-40.70722558776801</v>
       </c>
       <c r="M56">
-        <v>20.97846001367721</v>
+        <v>20.97846001367719</v>
       </c>
       <c r="N56">
-        <v>9.396789271321741e-006</v>
+        <v>9.396789271321837e-06</v>
       </c>
       <c r="O56">
         <v>0.5823981448068647</v>
@@ -2747,19 +2747,19 @@
         <v>3.914735043151315</v>
       </c>
       <c r="B57">
-        <v>0.0583625481755734</v>
+        <v>0.05836254817557341</v>
       </c>
       <c r="D57">
-        <v>-0.02663958418630481</v>
+        <v>-0.02663958418630482</v>
       </c>
       <c r="E57">
-        <v>-0.03902861968982398</v>
+        <v>-0.03902861968982404</v>
       </c>
       <c r="F57">
         <v>-0.1015396744639701</v>
       </c>
       <c r="I57">
-        <v>0.6393344419017235</v>
+        <v>0.6393344419017237</v>
       </c>
       <c r="J57">
         <v>6</v>
@@ -2771,13 +2771,13 @@
         <v>-39.28720978244745</v>
       </c>
       <c r="M57">
-        <v>22.39847581899777</v>
+        <v>22.39847581899775</v>
       </c>
       <c r="N57">
-        <v>4.619840410835194e-006</v>
+        <v>4.619840410835258e-06</v>
       </c>
       <c r="O57">
-        <v>0.5878107907448269</v>
+        <v>0.5878107907448271</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
@@ -2794,10 +2794,10 @@
         <v>-0.01355183478725009</v>
       </c>
       <c r="F58">
-        <v>-0.1053401947255041</v>
+        <v>-0.1053401947255042</v>
       </c>
       <c r="I58">
-        <v>0.6014218534237323</v>
+        <v>0.6014218534237326</v>
       </c>
       <c r="J58">
         <v>5</v>
@@ -2809,13 +2809,13 @@
         <v>-38.9973248269673</v>
       </c>
       <c r="M58">
-        <v>22.68836077447792</v>
+        <v>22.68836077447789</v>
       </c>
       <c r="N58">
-        <v>3.996494826788855e-006</v>
+        <v>3.99649482678891e-06</v>
       </c>
       <c r="O58">
-        <v>0.5601896313641184</v>
+        <v>0.5601896313641187</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
@@ -2826,13 +2826,13 @@
         <v>3.914735043151315</v>
       </c>
       <c r="B59">
-        <v>0.06310748314676243</v>
+        <v>0.06310748314676244</v>
       </c>
       <c r="F59">
-        <v>-0.09617358342894186</v>
+        <v>-0.09617358342894189</v>
       </c>
       <c r="G59">
-        <v>-0.0131553465654587</v>
+        <v>-0.01315534656545868</v>
       </c>
       <c r="I59">
         <v>0.6005820971977001</v>
@@ -2841,16 +2841,16 @@
         <v>5</v>
       </c>
       <c r="K59">
-        <v>25.57504657862796</v>
+        <v>25.57504657862795</v>
       </c>
       <c r="L59">
-        <v>-38.9278709350337</v>
+        <v>-38.92787093503369</v>
       </c>
       <c r="M59">
-        <v>22.75781466641152</v>
+        <v>22.75781466641151</v>
       </c>
       <c r="N59">
-        <v>3.860090920298765e-006</v>
+        <v>3.860090920298792e-06</v>
       </c>
       <c r="O59">
         <v>0.5592630038043587</v>
@@ -2864,37 +2864,37 @@
         <v>3.914735043151315</v>
       </c>
       <c r="C60">
-        <v>0.1947490392007736</v>
+        <v>0.1947490392007737</v>
       </c>
       <c r="D60">
         <v>-0.1146294063928057</v>
       </c>
       <c r="G60">
-        <v>-0.06734999296766993</v>
+        <v>-0.06734999296766996</v>
       </c>
       <c r="H60">
         <v>-0.1521920267654185</v>
       </c>
       <c r="I60">
-        <v>0.6336659918566902</v>
+        <v>0.6336659918566897</v>
       </c>
       <c r="J60">
         <v>6</v>
       </c>
       <c r="K60">
-        <v>27.00168172955774</v>
+        <v>27.00168172955771</v>
       </c>
       <c r="L60">
-        <v>-38.77259422834625</v>
+        <v>-38.77259422834619</v>
       </c>
       <c r="M60">
-        <v>22.91309137309897</v>
+        <v>22.913091373099</v>
       </c>
       <c r="N60">
-        <v>3.571738258155577e-006</v>
+        <v>3.571738258155525e-06</v>
       </c>
       <c r="O60">
-        <v>0.5813325621219316</v>
+        <v>0.5813325621219311</v>
       </c>
       <c r="P60" t="b">
         <v>0</v>
@@ -2914,10 +2914,10 @@
         <v>-0.0200206914341435</v>
       </c>
       <c r="H61">
-        <v>-0.1004260529434067</v>
+        <v>-0.1004260529434068</v>
       </c>
       <c r="I61">
-        <v>0.6314265597445292</v>
+        <v>0.6314265597445294</v>
       </c>
       <c r="J61">
         <v>6</v>
@@ -2929,13 +2929,13 @@
         <v>-38.57147641792518</v>
       </c>
       <c r="M61">
-        <v>23.11420918352004</v>
+        <v>23.11420918352001</v>
       </c>
       <c r="N61">
-        <v>3.230036634519098e-006</v>
+        <v>3.230036634519143e-06</v>
       </c>
       <c r="O61">
-        <v>0.5787732111366049</v>
+        <v>0.5787732111366051</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
@@ -2949,16 +2949,16 @@
         <v>0.1007759981106377</v>
       </c>
       <c r="C62">
-        <v>0.1063770920922697</v>
+        <v>0.1063770920922698</v>
       </c>
       <c r="G62">
-        <v>-0.01586286619260057</v>
+        <v>-0.01586286619260054</v>
       </c>
       <c r="H62">
         <v>-0.1026709503005655</v>
       </c>
       <c r="I62">
-        <v>0.6268907360537817</v>
+        <v>0.6268907360537818</v>
       </c>
       <c r="J62">
         <v>6</v>
@@ -2970,13 +2970,13 @@
         <v>-38.16784276961317</v>
       </c>
       <c r="M62">
-        <v>23.51784283183205</v>
+        <v>23.51784283183202</v>
       </c>
       <c r="N62">
-        <v>2.63973004162822e-006</v>
+        <v>2.639730041628257e-06</v>
       </c>
       <c r="O62">
-        <v>0.5735894126328933</v>
+        <v>0.5735894126328934</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
@@ -2987,37 +2987,37 @@
         <v>3.914735043151315</v>
       </c>
       <c r="B63">
-        <v>0.06582412579369783</v>
+        <v>0.06582412579369784</v>
       </c>
       <c r="E63">
-        <v>-0.03010545189448702</v>
+        <v>-0.03010545189448701</v>
       </c>
       <c r="F63">
-        <v>-0.09264165275254488</v>
+        <v>-0.09264165275254495</v>
       </c>
       <c r="G63">
-        <v>-0.00283003655856933</v>
+        <v>-0.00283003655856929</v>
       </c>
       <c r="I63">
-        <v>0.623373835508854</v>
+        <v>0.6233738355088538</v>
       </c>
       <c r="J63">
         <v>6</v>
       </c>
       <c r="K63">
-        <v>26.54450663385305</v>
+        <v>26.54450663385303</v>
       </c>
       <c r="L63">
-        <v>-37.85824403693687</v>
+        <v>-37.85824403693684</v>
       </c>
       <c r="M63">
         <v>23.82744156450836</v>
       </c>
       <c r="N63">
-        <v>2.261158491110803e-006</v>
+        <v>2.261158491110802e-06</v>
       </c>
       <c r="O63">
-        <v>0.5695700977244045</v>
+        <v>0.5695700977244044</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
@@ -3028,7 +3028,7 @@
         <v>3.914735043151315</v>
       </c>
       <c r="B64">
-        <v>0.05453210223933651</v>
+        <v>0.05453210223933652</v>
       </c>
       <c r="D64">
         <v>-0.0206876943494914</v>
@@ -3037,7 +3037,7 @@
         <v>-0.1014703737265744</v>
       </c>
       <c r="G64">
-        <v>-0.02117381586526524</v>
+        <v>-0.02117381586526521</v>
       </c>
       <c r="I64">
         <v>0.6100005772185564</v>
@@ -3046,16 +3046,16 @@
         <v>6</v>
       </c>
       <c r="K64">
-        <v>25.96878583350785</v>
+        <v>25.96878583350784</v>
       </c>
       <c r="L64">
-        <v>-36.70680243624646</v>
+        <v>-36.70680243624645</v>
       </c>
       <c r="M64">
-        <v>24.97888316519876</v>
+        <v>24.97888316519875</v>
       </c>
       <c r="N64">
-        <v>1.27144810148998e-006</v>
+        <v>1.271448101489989e-06</v>
       </c>
       <c r="O64">
         <v>0.5542863739640644</v>
@@ -3069,40 +3069,40 @@
         <v>3.914735043151315</v>
       </c>
       <c r="C65">
-        <v>0.1885078990551964</v>
+        <v>0.1885078990551965</v>
       </c>
       <c r="D65">
-        <v>-0.1183648036142284</v>
+        <v>-0.1183648036142285</v>
       </c>
       <c r="E65">
-        <v>-0.02312787877390953</v>
+        <v>-0.02312787877390959</v>
       </c>
       <c r="G65">
-        <v>-0.06253914547256106</v>
+        <v>-0.06253914547256105</v>
       </c>
       <c r="H65">
         <v>-0.1498430850454016</v>
       </c>
       <c r="I65">
-        <v>0.6459066720949377</v>
+        <v>0.6459066720949374</v>
       </c>
       <c r="J65">
         <v>7</v>
       </c>
       <c r="K65">
-        <v>27.56243408538119</v>
+        <v>27.56243408538117</v>
       </c>
       <c r="L65">
-        <v>-36.64486817076238</v>
+        <v>-36.64486817076234</v>
       </c>
       <c r="M65">
-        <v>25.04081743068284</v>
+        <v>25.04081743068286</v>
       </c>
       <c r="N65">
-        <v>1.232678390921281e-006</v>
+        <v>1.232678390921271e-06</v>
       </c>
       <c r="O65">
-        <v>0.5803338335940003</v>
+        <v>0.5803338335939998</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
@@ -3113,10 +3113,10 @@
         <v>3.914735043151315</v>
       </c>
       <c r="F66">
-        <v>-0.1297867853389745</v>
+        <v>-0.1297867853389744</v>
       </c>
       <c r="I66">
-        <v>0.4921843681201208</v>
+        <v>0.492184368120121</v>
       </c>
       <c r="J66">
         <v>3</v>
@@ -3128,13 +3128,13 @@
         <v>-36.39887008259372</v>
       </c>
       <c r="M66">
-        <v>25.28681551885151</v>
+        <v>25.28681551885148</v>
       </c>
       <c r="N66">
-        <v>1.090013750676357e-006</v>
+        <v>1.090013750676372e-06</v>
       </c>
       <c r="O66">
-        <v>0.4758032187046408</v>
+        <v>0.475803218704641</v>
       </c>
       <c r="P66" t="b">
         <v>0</v>
@@ -3145,22 +3145,22 @@
         <v>3.914735043151315</v>
       </c>
       <c r="B67">
-        <v>0.05399798918924778</v>
+        <v>0.05399798918924782</v>
       </c>
       <c r="D67">
-        <v>-0.02997334753488641</v>
+        <v>-0.02997334753488642</v>
       </c>
       <c r="E67">
-        <v>-0.0367356883381507</v>
+        <v>-0.03673568833815077</v>
       </c>
       <c r="F67">
-        <v>-0.09953805233499546</v>
+        <v>-0.09953805233499548</v>
       </c>
       <c r="G67">
-        <v>-0.01217360696205188</v>
+        <v>-0.01217360696205184</v>
       </c>
       <c r="I67">
-        <v>0.6420393018040089</v>
+        <v>0.642039301804009</v>
       </c>
       <c r="J67">
         <v>7</v>
@@ -3172,13 +3172,13 @@
         <v>-36.28639965613023</v>
       </c>
       <c r="M67">
-        <v>25.39928594531499</v>
+        <v>25.39928594531496</v>
       </c>
       <c r="N67">
-        <v>1.030408265758927e-006</v>
+        <v>1.030408265758941e-06</v>
       </c>
       <c r="O67">
-        <v>0.5757502836195662</v>
+        <v>0.5757502836195663</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
@@ -3189,13 +3189,13 @@
         <v>3.914735043151315</v>
       </c>
       <c r="D68">
-        <v>-0.04362183779357866</v>
+        <v>-0.04362183779357869</v>
       </c>
       <c r="E68">
-        <v>-0.04440889298637096</v>
+        <v>-0.044408892986371</v>
       </c>
       <c r="F68">
-        <v>-0.1302371164781683</v>
+        <v>-0.1302371164781684</v>
       </c>
       <c r="I68">
         <v>0.5665177532673551</v>
@@ -3204,16 +3204,16 @@
         <v>5</v>
       </c>
       <c r="K68">
-        <v>24.22464371434217</v>
+        <v>24.22464371434216</v>
       </c>
       <c r="L68">
-        <v>-36.22706520646212</v>
+        <v>-36.22706520646211</v>
       </c>
       <c r="M68">
-        <v>25.4586203949831</v>
+        <v>25.45862039498309</v>
       </c>
       <c r="N68">
-        <v>1.000287914834614e-006</v>
+        <v>1.000287914834621e-06</v>
       </c>
       <c r="O68">
         <v>0.521674762226047</v>
@@ -3227,7 +3227,7 @@
         <v>3.914735043151315</v>
       </c>
       <c r="E69">
-        <v>-0.03110506281348704</v>
+        <v>-0.0311050628134871</v>
       </c>
       <c r="F69">
         <v>-0.1227800281068107</v>
@@ -3239,16 +3239,16 @@
         <v>4</v>
       </c>
       <c r="K69">
-        <v>22.50906135576275</v>
+        <v>22.50906135576274</v>
       </c>
       <c r="L69">
-        <v>-35.58955128295406</v>
+        <v>-35.58955128295405</v>
       </c>
       <c r="M69">
-        <v>26.09613431849116</v>
+        <v>26.09613431849115</v>
       </c>
       <c r="N69">
-        <v>7.272615584563772e-007</v>
+        <v>7.272615584563822e-07</v>
       </c>
       <c r="O69">
         <v>0.4869547481106574</v>
@@ -3265,19 +3265,19 @@
         <v>0.1023405756496286</v>
       </c>
       <c r="C70">
-        <v>0.09959202436641762</v>
+        <v>0.09959202436641768</v>
       </c>
       <c r="E70">
-        <v>-0.01746008726144482</v>
+        <v>-0.01746008726144484</v>
       </c>
       <c r="G70">
-        <v>-0.01124977557873946</v>
+        <v>-0.01124977557873943</v>
       </c>
       <c r="H70">
-        <v>-0.09947492626769151</v>
+        <v>-0.09947492626769153</v>
       </c>
       <c r="I70">
-        <v>0.6339519389768631</v>
+        <v>0.6339519389768633</v>
       </c>
       <c r="J70">
         <v>7</v>
@@ -3289,13 +3289,13 @@
         <v>-35.54913212779938</v>
       </c>
       <c r="M70">
-        <v>26.13655347364584</v>
+        <v>26.13655347364581</v>
       </c>
       <c r="N70">
-        <v>7.12711430757723e-007</v>
+        <v>7.127114307577328e-07</v>
       </c>
       <c r="O70">
-        <v>0.5661652610096155</v>
+        <v>0.5661652610096157</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
@@ -3306,31 +3306,31 @@
         <v>3.914735043151315</v>
       </c>
       <c r="D71">
-        <v>-0.02998185512719294</v>
+        <v>-0.02998185512719296</v>
       </c>
       <c r="F71">
-        <v>-0.1369719017949841</v>
+        <v>-0.1369719017949842</v>
       </c>
       <c r="I71">
-        <v>0.5169412965655694</v>
+        <v>0.5169412965655691</v>
       </c>
       <c r="J71">
         <v>4</v>
       </c>
       <c r="K71">
-        <v>22.43790254800708</v>
+        <v>22.43790254800706</v>
       </c>
       <c r="L71">
-        <v>-35.44723366744273</v>
+        <v>-35.44723366744269</v>
       </c>
       <c r="M71">
-        <v>26.23845193400249</v>
+        <v>26.23845193400251</v>
       </c>
       <c r="N71">
-        <v>6.773088568707025e-007</v>
+        <v>6.773088568706975e-07</v>
       </c>
       <c r="O71">
-        <v>0.4847373830032741</v>
+        <v>0.4847373830032737</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
@@ -3341,34 +3341,34 @@
         <v>3.914735043151315</v>
       </c>
       <c r="D72">
-        <v>-0.03977582580877381</v>
+        <v>-0.03977582580877384</v>
       </c>
       <c r="F72">
-        <v>-0.1215390257122603</v>
+        <v>-0.1215390257122604</v>
       </c>
       <c r="G72">
-        <v>-0.04123230665419126</v>
+        <v>-0.04123230665419127</v>
       </c>
       <c r="I72">
-        <v>0.5547380212957146</v>
+        <v>0.5547380212957145</v>
       </c>
       <c r="J72">
         <v>5</v>
       </c>
       <c r="K72">
-        <v>23.78224599359643</v>
+        <v>23.78224599359642</v>
       </c>
       <c r="L72">
-        <v>-35.34226976497064</v>
+        <v>-35.34226976497061</v>
       </c>
       <c r="M72">
         <v>26.34341583647458</v>
       </c>
       <c r="N72">
-        <v>6.426790349886533e-007</v>
+        <v>6.426790349886531e-07</v>
       </c>
       <c r="O72">
-        <v>0.508676437291823</v>
+        <v>0.5086764372918229</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
@@ -3382,7 +3382,7 @@
         <v>-0.1167241025728025</v>
       </c>
       <c r="G73">
-        <v>-0.03029273645040468</v>
+        <v>-0.03029273645040466</v>
       </c>
       <c r="I73">
         <v>0.5140115107099046</v>
@@ -3394,13 +3394,13 @@
         <v>22.33813111422209</v>
       </c>
       <c r="L73">
-        <v>-35.24769079987276</v>
+        <v>-35.24769079987274</v>
       </c>
       <c r="M73">
-        <v>26.43799480157247</v>
+        <v>26.43799480157245</v>
       </c>
       <c r="N73">
-        <v>6.129944910834574e-007</v>
+        <v>6.129944910834616e-07</v>
       </c>
       <c r="O73">
         <v>0.4816122780905648</v>
@@ -3414,37 +3414,37 @@
         <v>3.914735043151315</v>
       </c>
       <c r="D74">
-        <v>-0.04902670496560774</v>
+        <v>-0.04902670496560779</v>
       </c>
       <c r="E74">
-        <v>-0.03735012676704733</v>
+        <v>-0.03735012676704737</v>
       </c>
       <c r="F74">
-        <v>-0.1193745349625842</v>
+        <v>-0.1193745349625843</v>
       </c>
       <c r="G74">
-        <v>-0.03188181261289201</v>
+        <v>-0.03188181261289203</v>
       </c>
       <c r="I74">
-        <v>0.5878629438955263</v>
+        <v>0.5878629438955261</v>
       </c>
       <c r="J74">
         <v>6</v>
       </c>
       <c r="K74">
-        <v>25.05780935935763</v>
+        <v>25.05780935935762</v>
       </c>
       <c r="L74">
-        <v>-34.88484948794603</v>
+        <v>-34.884849487946</v>
       </c>
       <c r="M74">
         <v>26.80083611349919</v>
       </c>
       <c r="N74">
-        <v>5.112891559702855e-007</v>
+        <v>5.112891559702853e-07</v>
       </c>
       <c r="O74">
-        <v>0.5289862215948872</v>
+        <v>0.528986221594887</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
@@ -3455,34 +3455,34 @@
         <v>3.914735043151315</v>
       </c>
       <c r="C75">
-        <v>0.2159340987578192</v>
+        <v>0.2159340987578193</v>
       </c>
       <c r="D75">
-        <v>-0.09938656740896334</v>
+        <v>-0.09938656740896336</v>
       </c>
       <c r="H75">
-        <v>-0.1473604936009911</v>
+        <v>-0.147360493600991</v>
       </c>
       <c r="I75">
-        <v>0.5314982204125525</v>
+        <v>0.5314982204125522</v>
       </c>
       <c r="J75">
         <v>5</v>
       </c>
       <c r="K75">
-        <v>22.94277425576501</v>
+        <v>22.94277425576499</v>
       </c>
       <c r="L75">
-        <v>-33.6633262893078</v>
+        <v>-33.66332628930777</v>
       </c>
       <c r="M75">
         <v>28.02235931213743</v>
       </c>
       <c r="N75">
-        <v>2.775979083383552e-007</v>
+        <v>2.775979083383551e-07</v>
       </c>
       <c r="O75">
-        <v>0.4830325190759199</v>
+        <v>0.4830325190759197</v>
       </c>
       <c r="P75" t="b">
         <v>0</v>
@@ -3493,34 +3493,34 @@
         <v>3.914735043151315</v>
       </c>
       <c r="E76">
-        <v>-0.0250068891562777</v>
+        <v>-0.02500688915627777</v>
       </c>
       <c r="F76">
         <v>-0.1145251618826689</v>
       </c>
       <c r="G76">
-        <v>-0.02232887666074276</v>
+        <v>-0.02232887666074273</v>
       </c>
       <c r="I76">
-        <v>0.5298477725492639</v>
+        <v>0.5298477725492636</v>
       </c>
       <c r="J76">
         <v>5</v>
       </c>
       <c r="K76">
-        <v>22.88474985571003</v>
+        <v>22.88474985571001</v>
       </c>
       <c r="L76">
-        <v>-33.54727748919784</v>
+        <v>-33.5472774891978</v>
       </c>
       <c r="M76">
-        <v>28.13840811224738</v>
+        <v>28.13840811224739</v>
       </c>
       <c r="N76">
-        <v>2.619488599674913e-007</v>
+        <v>2.619488599674903e-07</v>
       </c>
       <c r="O76">
-        <v>0.481211335226774</v>
+        <v>0.4812113352267736</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
@@ -3531,37 +3531,37 @@
         <v>3.914735043151315</v>
       </c>
       <c r="C77">
-        <v>0.2040621113223532</v>
+        <v>0.2040621113223534</v>
       </c>
       <c r="D77">
-        <v>-0.1067724201413582</v>
+        <v>-0.1067724201413583</v>
       </c>
       <c r="E77">
-        <v>-0.03540878209104068</v>
+        <v>-0.03540878209104072</v>
       </c>
       <c r="H77">
-        <v>-0.1442926412027533</v>
+        <v>-0.1442926412027534</v>
       </c>
       <c r="I77">
-        <v>0.5614117877135518</v>
+        <v>0.5614117877135516</v>
       </c>
       <c r="J77">
         <v>6</v>
       </c>
       <c r="K77">
-        <v>24.03142677070848</v>
+        <v>24.03142677070846</v>
       </c>
       <c r="L77">
-        <v>-32.83208431064772</v>
+        <v>-32.83208431064769</v>
       </c>
       <c r="M77">
         <v>28.85360129079751</v>
       </c>
       <c r="N77">
-        <v>1.831952830692608e-007</v>
+        <v>1.831952830692607e-07</v>
       </c>
       <c r="O77">
-        <v>0.4987563288154878</v>
+        <v>0.4987563288154876</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
@@ -3575,10 +3575,10 @@
         <v>0.122276182444293</v>
       </c>
       <c r="E78">
-        <v>-0.05009755480654595</v>
+        <v>-0.05009755480654596</v>
       </c>
       <c r="H78">
-        <v>-0.04485973431622892</v>
+        <v>-0.04485973431622893</v>
       </c>
       <c r="I78">
         <v>0.47769005364914</v>
@@ -3590,13 +3590,13 @@
         <v>21.14887316087604</v>
       </c>
       <c r="L78">
-        <v>-30.07552409952987</v>
+        <v>-30.07552409952985</v>
       </c>
       <c r="M78">
-        <v>31.61016150191536</v>
+        <v>31.61016150191534</v>
       </c>
       <c r="N78">
-        <v>4.616733894833708e-008</v>
+        <v>4.616733894833739e-08</v>
       </c>
       <c r="O78">
         <v>0.4236579902335338</v>
@@ -3613,10 +3613,10 @@
         <v>0.09048620891779999</v>
       </c>
       <c r="C79">
-        <v>0.05328431700884622</v>
+        <v>0.05328431700884625</v>
       </c>
       <c r="I79">
-        <v>0.4312402988606813</v>
+        <v>0.4312402988606814</v>
       </c>
       <c r="J79">
         <v>4</v>
@@ -3625,16 +3625,16 @@
         <v>19.74312516162452</v>
       </c>
       <c r="L79">
-        <v>-30.05767889467762</v>
+        <v>-30.05767889467761</v>
       </c>
       <c r="M79">
-        <v>31.62800670676761</v>
+        <v>31.62800670676759</v>
       </c>
       <c r="N79">
-        <v>4.575723844049041e-008</v>
+        <v>4.575723844049088e-08</v>
       </c>
       <c r="O79">
-        <v>0.3933229854513933</v>
+        <v>0.3933229854513934</v>
       </c>
       <c r="P79" t="b">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0.1061812982744386</v>
       </c>
       <c r="E80">
-        <v>-0.04782570726128951</v>
+        <v>-0.04782570726128953</v>
       </c>
       <c r="I80">
         <v>0.4268296308473207</v>
@@ -3660,13 +3660,13 @@
         <v>19.61566309363307</v>
       </c>
       <c r="L80">
-        <v>-29.80275475869472</v>
+        <v>-29.8027547586947</v>
       </c>
       <c r="M80">
-        <v>31.8829308427505</v>
+        <v>31.88293084275049</v>
       </c>
       <c r="N80">
-        <v>4.028132364845457e-008</v>
+        <v>4.028132364845484e-08</v>
       </c>
       <c r="O80">
         <v>0.3886182729038088</v>
@@ -3683,10 +3683,10 @@
         <v>0.09191727052534046</v>
       </c>
       <c r="C81">
-        <v>0.04028472423362245</v>
+        <v>0.04028472423362246</v>
       </c>
       <c r="E81">
-        <v>-0.03494908556627843</v>
+        <v>-0.03494908556627845</v>
       </c>
       <c r="I81">
         <v>0.4623528066179314</v>
@@ -3695,16 +3695,16 @@
         <v>5</v>
       </c>
       <c r="K81">
-        <v>20.67134019227407</v>
+        <v>20.67134019227406</v>
       </c>
       <c r="L81">
-        <v>-29.12045816232591</v>
+        <v>-29.1204581623259</v>
       </c>
       <c r="M81">
-        <v>32.56522743911931</v>
+        <v>32.5652274391193</v>
       </c>
       <c r="N81">
-        <v>2.863814671449102e-008</v>
+        <v>2.863814671449122e-08</v>
       </c>
       <c r="O81">
         <v>0.4067341314404761</v>
@@ -3724,7 +3724,7 @@
         <v>-0.04643914459468375</v>
       </c>
       <c r="H82">
-        <v>-0.04625447321064646</v>
+        <v>-0.04625447321064645</v>
       </c>
       <c r="I82">
         <v>0.4571996207028056</v>
@@ -3736,13 +3736,13 @@
         <v>20.51394576704578</v>
       </c>
       <c r="L82">
-        <v>-28.80566931186935</v>
+        <v>-28.80566931186933</v>
       </c>
       <c r="M82">
-        <v>32.88001628957588</v>
+        <v>32.88001628957586</v>
       </c>
       <c r="N82">
-        <v>2.446748773598685e-008</v>
+        <v>2.446748773598702e-08</v>
       </c>
       <c r="O82">
         <v>0.4010478573272338</v>
@@ -3759,7 +3759,7 @@
         <v>0.1111074508301067</v>
       </c>
       <c r="I83">
-        <v>0.3607058884922203</v>
+        <v>0.3607058884922205</v>
       </c>
       <c r="J83">
         <v>3</v>
@@ -3768,16 +3768,16 @@
         <v>17.8141664296133</v>
       </c>
       <c r="L83">
-        <v>-28.80074665233005</v>
+        <v>-28.80074665233004</v>
       </c>
       <c r="M83">
-        <v>32.88493894911517</v>
+        <v>32.88493894911515</v>
       </c>
       <c r="N83">
-        <v>2.440733923304998e-008</v>
+        <v>2.440733923305014e-08</v>
       </c>
       <c r="O83">
-        <v>0.340083497798421</v>
+        <v>0.3400834977984212</v>
       </c>
       <c r="P83" t="b">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>0.126383082185809</v>
       </c>
       <c r="H84">
-        <v>-0.04196615860553143</v>
+        <v>-0.04196615860553145</v>
       </c>
       <c r="I84">
         <v>0.4053472286452533</v>
@@ -3803,13 +3803,13 @@
         <v>19.00855125713737</v>
       </c>
       <c r="L84">
-        <v>-28.58853108570332</v>
+        <v>-28.5885310857033</v>
       </c>
       <c r="M84">
-        <v>33.09715451574191</v>
+        <v>33.09715451574189</v>
       </c>
       <c r="N84">
-        <v>2.195019650774199e-008</v>
+        <v>2.195019650774214e-08</v>
       </c>
       <c r="O84">
         <v>0.3657037105549369</v>
@@ -3823,10 +3823,10 @@
         <v>3.914735043151315</v>
       </c>
       <c r="B85">
-        <v>0.09381399743231852</v>
+        <v>0.09381399743231854</v>
       </c>
       <c r="G85">
-        <v>-0.04197634005144565</v>
+        <v>-0.04197634005144566</v>
       </c>
       <c r="I85">
         <v>0.4034519619473694</v>
@@ -3835,16 +3835,16 @@
         <v>4</v>
       </c>
       <c r="K85">
-        <v>18.95604637860474</v>
+        <v>18.95604637860473</v>
       </c>
       <c r="L85">
-        <v>-28.48352132863805</v>
+        <v>-28.48352132863803</v>
       </c>
       <c r="M85">
-        <v>33.20216427280717</v>
+        <v>33.20216427280716</v>
       </c>
       <c r="N85">
-        <v>2.082743719681505e-008</v>
+        <v>2.082743719681519e-08</v>
       </c>
       <c r="O85">
         <v>0.3636820927438608</v>
@@ -3861,34 +3861,34 @@
         <v>0.1112392275479752</v>
       </c>
       <c r="E86">
-        <v>-0.04028447545208931</v>
+        <v>-0.04028447545208932</v>
       </c>
       <c r="G86">
-        <v>-0.03129598957640033</v>
+        <v>-0.03129598957640035</v>
       </c>
       <c r="H86">
-        <v>-0.04718289765862611</v>
+        <v>-0.04718289765862607</v>
       </c>
       <c r="I86">
-        <v>0.4984636367617786</v>
+        <v>0.4984636367617783</v>
       </c>
       <c r="J86">
         <v>6</v>
       </c>
       <c r="K86">
-        <v>21.81852673181715</v>
+        <v>21.81852673181713</v>
       </c>
       <c r="L86">
-        <v>-28.40628423286507</v>
+        <v>-28.40628423286503</v>
       </c>
       <c r="M86">
-        <v>33.27940136858015</v>
+        <v>33.27940136858017</v>
       </c>
       <c r="N86">
-        <v>2.003844474316827e-008</v>
+        <v>2.003844474316812e-08</v>
       </c>
       <c r="O86">
-        <v>0.4268155848706041</v>
+        <v>0.4268155848706038</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
@@ -3902,28 +3902,28 @@
         <v>0.08283150095057577</v>
       </c>
       <c r="C87">
-        <v>0.04437261695293165</v>
+        <v>0.0443726169529317</v>
       </c>
       <c r="G87">
-        <v>-0.02695166028755405</v>
+        <v>-0.02695166028755401</v>
       </c>
       <c r="I87">
-        <v>0.4468894350934231</v>
+        <v>0.446889435093423</v>
       </c>
       <c r="J87">
         <v>5</v>
       </c>
       <c r="K87">
-        <v>20.20347695996504</v>
+        <v>20.20347695996503</v>
       </c>
       <c r="L87">
-        <v>-28.18473169770785</v>
+        <v>-28.18473169770784</v>
       </c>
       <c r="M87">
-        <v>33.50095390373737</v>
+        <v>33.50095390373735</v>
       </c>
       <c r="N87">
-        <v>1.793719335173574e-008</v>
+        <v>1.793719335173586e-08</v>
       </c>
       <c r="O87">
         <v>0.3896711007927427</v>
@@ -3940,7 +3940,7 @@
         <v>0.09588352964273167</v>
       </c>
       <c r="E88">
-        <v>-0.03921067984834022</v>
+        <v>-0.03921067984834024</v>
       </c>
       <c r="G88">
         <v>-0.02714964054739543</v>
@@ -3952,16 +3952,16 @@
         <v>5</v>
       </c>
       <c r="K88">
-        <v>20.07500479771401</v>
+        <v>20.075004797714</v>
       </c>
       <c r="L88">
-        <v>-27.9277873732058</v>
+        <v>-27.92778737320578</v>
       </c>
       <c r="M88">
-        <v>33.75789822823943</v>
+        <v>33.75789822823941</v>
       </c>
       <c r="N88">
-        <v>1.577465022987891e-008</v>
+        <v>1.577465022987902e-08</v>
       </c>
       <c r="O88">
         <v>0.384900414375435</v>
@@ -3978,31 +3978,31 @@
         <v>0.08900967085737639</v>
       </c>
       <c r="C89">
-        <v>0.05546304798012679</v>
+        <v>0.05546304798012681</v>
       </c>
       <c r="D89">
-        <v>-0.004476815978366512</v>
+        <v>-0.004476815978366497</v>
       </c>
       <c r="I89">
-        <v>0.431696257554826</v>
+        <v>0.4316962575548261</v>
       </c>
       <c r="J89">
         <v>5</v>
       </c>
       <c r="K89">
-        <v>19.75635805359565</v>
+        <v>19.75635805359564</v>
       </c>
       <c r="L89">
         <v>-27.29049388496907</v>
       </c>
       <c r="M89">
-        <v>34.39519171647615</v>
+        <v>34.39519171647613</v>
       </c>
       <c r="N89">
-        <v>1.147025877173271e-008</v>
+        <v>1.147025877173283e-08</v>
       </c>
       <c r="O89">
-        <v>0.3729062152329115</v>
+        <v>0.3729062152329116</v>
       </c>
       <c r="P89" t="b">
         <v>1</v>
@@ -4016,16 +4016,16 @@
         <v>0.1215959305027128</v>
       </c>
       <c r="D90">
-        <v>-0.005527997573873896</v>
+        <v>-0.0055279975738739</v>
       </c>
       <c r="E90">
-        <v>-0.05214160166395507</v>
+        <v>-0.05214160166395513</v>
       </c>
       <c r="H90">
-        <v>-0.04571788691948286</v>
+        <v>-0.04571788691948287</v>
       </c>
       <c r="I90">
-        <v>0.4784307649574605</v>
+        <v>0.4784307649574606</v>
       </c>
       <c r="J90">
         <v>6</v>
@@ -4034,16 +4034,16 @@
         <v>21.17228916314209</v>
       </c>
       <c r="L90">
-        <v>-27.11380909551496</v>
+        <v>-27.11380909551495</v>
       </c>
       <c r="M90">
-        <v>34.57187650593026</v>
+        <v>34.57187650593025</v>
       </c>
       <c r="N90">
-        <v>1.050041832560472e-008</v>
+        <v>1.050041832560479e-08</v>
       </c>
       <c r="O90">
-        <v>0.4039208742370978</v>
+        <v>0.4039208742370979</v>
       </c>
       <c r="P90" t="b">
         <v>1</v>
@@ -4057,28 +4057,28 @@
         <v>0.1064835130630786</v>
       </c>
       <c r="D91">
-        <v>0.001690690810037027</v>
+        <v>0.001690690810037025</v>
       </c>
       <c r="E91">
-        <v>-0.04721384478705673</v>
+        <v>-0.04721384478705679</v>
       </c>
       <c r="I91">
-        <v>0.4269006571963026</v>
+        <v>0.4269006571963025</v>
       </c>
       <c r="J91">
         <v>5</v>
       </c>
       <c r="K91">
-        <v>19.61770787375328</v>
+        <v>19.61770787375327</v>
       </c>
       <c r="L91">
-        <v>-27.01319352528433</v>
+        <v>-27.01319352528431</v>
       </c>
       <c r="M91">
-        <v>34.67249207616089</v>
+        <v>34.67249207616088</v>
       </c>
       <c r="N91">
-        <v>9.985233101752594e-009</v>
+        <v>9.985233101752663e-09</v>
       </c>
       <c r="O91">
         <v>0.3676145182855752</v>
@@ -4095,28 +4095,28 @@
         <v>0.1137872010630022</v>
       </c>
       <c r="D92">
-        <v>0.01894142111541518</v>
+        <v>0.01894142111541521</v>
       </c>
       <c r="I92">
-        <v>0.370979218778404</v>
+        <v>0.3709792187784041</v>
       </c>
       <c r="J92">
         <v>4</v>
       </c>
       <c r="K92">
-        <v>18.0814717463097</v>
+        <v>18.08147174630969</v>
       </c>
       <c r="L92">
-        <v>-26.73437206404796</v>
+        <v>-26.73437206404795</v>
       </c>
       <c r="M92">
-        <v>34.95131353739726</v>
+        <v>34.95131353739724</v>
       </c>
       <c r="N92">
-        <v>8.685861433846874e-009</v>
+        <v>8.685861433846965e-09</v>
       </c>
       <c r="O92">
-        <v>0.3290445000302976</v>
+        <v>0.3290445000302977</v>
       </c>
       <c r="P92" t="b">
         <v>1</v>
@@ -4127,19 +4127,19 @@
         <v>3.914735043151315</v>
       </c>
       <c r="B93">
-        <v>0.08654765736234987</v>
+        <v>0.08654765736234989</v>
       </c>
       <c r="C93">
-        <v>0.03587506843047245</v>
+        <v>0.03587506843047247</v>
       </c>
       <c r="E93">
-        <v>-0.03056018463101692</v>
+        <v>-0.03056018463101695</v>
       </c>
       <c r="G93">
-        <v>-0.01827325616159258</v>
+        <v>-0.01827325616159256</v>
       </c>
       <c r="I93">
-        <v>0.4690558346172522</v>
+        <v>0.4690558346172523</v>
       </c>
       <c r="J93">
         <v>6</v>
@@ -4148,16 +4148,16 @@
         <v>20.87834432295863</v>
       </c>
       <c r="L93">
-        <v>-26.52591941514804</v>
+        <v>-26.52591941514803</v>
       </c>
       <c r="M93">
-        <v>35.15976618629719</v>
+        <v>35.15976618629716</v>
       </c>
       <c r="N93">
-        <v>7.826146605298713e-009</v>
+        <v>7.826146605298822e-09</v>
       </c>
       <c r="O93">
-        <v>0.3932066681340025</v>
+        <v>0.3932066681340026</v>
       </c>
       <c r="P93" t="b">
         <v>1</v>
@@ -4171,16 +4171,16 @@
         <v>0.08726341489124163</v>
       </c>
       <c r="C94">
-        <v>0.04609152106195671</v>
+        <v>0.04609152106195673</v>
       </c>
       <c r="D94">
         <v>-0.01453286981449894</v>
       </c>
       <c r="E94">
-        <v>-0.03835245745718881</v>
+        <v>-0.03835245745718885</v>
       </c>
       <c r="I94">
-        <v>0.4668627257915986</v>
+        <v>0.4668627257915987</v>
       </c>
       <c r="J94">
         <v>6</v>
@@ -4192,13 +4192,13 @@
         <v>-26.38989092892436</v>
       </c>
       <c r="M94">
-        <v>35.29579467252086</v>
+        <v>35.29579467252083</v>
       </c>
       <c r="N94">
-        <v>7.311555293709722e-009</v>
+        <v>7.311555293709823e-09</v>
       </c>
       <c r="O94">
-        <v>0.3907002580475413</v>
+        <v>0.3907002580475414</v>
       </c>
       <c r="P94" t="b">
         <v>1</v>
@@ -4212,13 +4212,13 @@
         <v>0.1276993920032723</v>
       </c>
       <c r="D95">
-        <v>0.01419303840385663</v>
+        <v>0.01419303840385665</v>
       </c>
       <c r="H95">
-        <v>-0.04006598807411953</v>
+        <v>-0.04006598807411951</v>
       </c>
       <c r="I95">
-        <v>0.4110238615118417</v>
+        <v>0.4110238615118418</v>
       </c>
       <c r="J95">
         <v>5</v>
@@ -4227,16 +4227,16 @@
         <v>19.16681903796162</v>
       </c>
       <c r="L95">
-        <v>-26.11141585370102</v>
+        <v>-26.11141585370101</v>
       </c>
       <c r="M95">
-        <v>35.5742697477442</v>
+        <v>35.57426974774418</v>
       </c>
       <c r="N95">
-        <v>6.361209142304468e-009</v>
+        <v>6.361209142304533e-09</v>
       </c>
       <c r="O95">
-        <v>0.3500952954613426</v>
+        <v>0.3500952954613427</v>
       </c>
       <c r="P95" t="b">
         <v>1</v>
@@ -4250,34 +4250,34 @@
         <v>0.1071371178237723</v>
       </c>
       <c r="D96">
-        <v>-0.006091743092889724</v>
+        <v>-0.0060917430928897</v>
       </c>
       <c r="G96">
-        <v>-0.04937251140033522</v>
+        <v>-0.0493725114003352</v>
       </c>
       <c r="H96">
-        <v>-0.04734091351015225</v>
+        <v>-0.04734091351015222</v>
       </c>
       <c r="I96">
-        <v>0.4580384725150538</v>
+        <v>0.4580384725150537</v>
       </c>
       <c r="J96">
         <v>6</v>
       </c>
       <c r="K96">
-        <v>20.53946483731281</v>
+        <v>20.5394648373128</v>
       </c>
       <c r="L96">
-        <v>-25.84816044385638</v>
+        <v>-25.84816044385636</v>
       </c>
       <c r="M96">
-        <v>35.83752515758884</v>
+        <v>35.83752515758883</v>
       </c>
       <c r="N96">
-        <v>5.576664127854806e-009</v>
+        <v>5.576664127854844e-09</v>
       </c>
       <c r="O96">
-        <v>0.3806153971600615</v>
+        <v>0.3806153971600613</v>
       </c>
       <c r="P96" t="b">
         <v>1</v>
@@ -4288,31 +4288,31 @@
         <v>3.914735043151315</v>
       </c>
       <c r="C97">
-        <v>0.1404770588172136</v>
+        <v>0.1404770588172138</v>
       </c>
       <c r="H97">
-        <v>-0.08361644815478944</v>
+        <v>-0.08361644815478948</v>
       </c>
       <c r="I97">
-        <v>0.3525855146939645</v>
+        <v>0.3525855146939644</v>
       </c>
       <c r="J97">
         <v>4</v>
       </c>
       <c r="K97">
-        <v>17.60590179711029</v>
+        <v>17.60590179711028</v>
       </c>
       <c r="L97">
-        <v>-25.78323216564915</v>
+        <v>-25.78323216564912</v>
       </c>
       <c r="M97">
-        <v>35.90245343579608</v>
+        <v>35.90245343579607</v>
       </c>
       <c r="N97">
-        <v>5.398529663574037e-009</v>
+        <v>5.398529663574055e-09</v>
       </c>
       <c r="O97">
-        <v>0.3094245490068954</v>
+        <v>0.3094245490068953</v>
       </c>
       <c r="P97" t="b">
         <v>0</v>
@@ -4323,16 +4323,16 @@
         <v>3.914735043151315</v>
       </c>
       <c r="C98">
-        <v>0.1174650392036954</v>
+        <v>0.1174650392036956</v>
       </c>
       <c r="G98">
-        <v>-0.04731261523911105</v>
+        <v>-0.04731261523911107</v>
       </c>
       <c r="H98">
-        <v>-0.08014275311756836</v>
+        <v>-0.08014275311756838</v>
       </c>
       <c r="I98">
-        <v>0.4050811475734875</v>
+        <v>0.4050811475734878</v>
       </c>
       <c r="J98">
         <v>5</v>
@@ -4341,16 +4341,16 @@
         <v>19.00116988106958</v>
       </c>
       <c r="L98">
-        <v>-25.78011753991693</v>
+        <v>-25.78011753991694</v>
       </c>
       <c r="M98">
-        <v>35.90556806152829</v>
+        <v>35.90556806152826</v>
       </c>
       <c r="N98">
-        <v>5.390129006794119e-009</v>
+        <v>5.390129006794213e-09</v>
       </c>
       <c r="O98">
-        <v>0.3435378180121241</v>
+        <v>0.3435378180121245</v>
       </c>
       <c r="P98" t="b">
         <v>1</v>
@@ -4361,34 +4361,34 @@
         <v>3.914735043151315</v>
       </c>
       <c r="B99">
-        <v>0.09480268290360561</v>
+        <v>0.09480268290360563</v>
       </c>
       <c r="D99">
-        <v>0.002971092232196473</v>
+        <v>0.002971092232196496</v>
       </c>
       <c r="G99">
-        <v>-0.04059679039602351</v>
+        <v>-0.04059679039602349</v>
       </c>
       <c r="I99">
-        <v>0.4036585575973483</v>
+        <v>0.4036585575973478</v>
       </c>
       <c r="J99">
         <v>5</v>
       </c>
       <c r="K99">
-        <v>18.96176162434139</v>
+        <v>18.96176162434137</v>
       </c>
       <c r="L99">
-        <v>-25.70130102646055</v>
+        <v>-25.70130102646051</v>
       </c>
       <c r="M99">
-        <v>35.98438457498467</v>
+        <v>35.98438457498468</v>
       </c>
       <c r="N99">
-        <v>5.181844439920618e-009</v>
+        <v>5.181844439920599e-09</v>
       </c>
       <c r="O99">
-        <v>0.3419680635556947</v>
+        <v>0.3419680635556941</v>
       </c>
       <c r="P99" t="b">
         <v>1</v>
@@ -4402,19 +4402,19 @@
         <v>0.1063986027798811</v>
       </c>
       <c r="D100">
-        <v>-0.01861803314067771</v>
+        <v>-0.01861803314067769</v>
       </c>
       <c r="E100">
-        <v>-0.04490187837708338</v>
+        <v>-0.04490187837708343</v>
       </c>
       <c r="G100">
-        <v>-0.03852545383028433</v>
+        <v>-0.03852545383028431</v>
       </c>
       <c r="H100">
-        <v>-0.05060977230942707</v>
+        <v>-0.05060977230942705</v>
       </c>
       <c r="I100">
-        <v>0.5057570751281786</v>
+        <v>0.5057570751281788</v>
       </c>
       <c r="J100">
         <v>7</v>
@@ -4426,13 +4426,13 @@
         <v>-25.64046936315418</v>
       </c>
       <c r="M100">
-        <v>36.04521623829105</v>
+        <v>36.04521623829102</v>
       </c>
       <c r="N100">
-        <v>5.026607135258606e-009</v>
+        <v>5.026607135258675e-09</v>
       </c>
       <c r="O100">
-        <v>0.4142306075593227</v>
+        <v>0.4142306075593231</v>
       </c>
       <c r="P100" t="b">
         <v>1</v>
@@ -4443,16 +4443,16 @@
         <v>3.914735043151315</v>
       </c>
       <c r="B101">
-        <v>0.07658960606610235</v>
+        <v>0.07658960606610238</v>
       </c>
       <c r="C101">
-        <v>0.04987422467995338</v>
+        <v>0.04987422467995341</v>
       </c>
       <c r="D101">
-        <v>-0.01466549619155466</v>
+        <v>-0.01466549619155463</v>
       </c>
       <c r="G101">
-        <v>-0.03189834503460537</v>
+        <v>-0.03189834503460532</v>
       </c>
       <c r="I101">
         <v>0.4512553285776191</v>
@@ -4461,16 +4461,16 @@
         <v>6</v>
       </c>
       <c r="K101">
-        <v>20.33423391806701</v>
+        <v>20.334233918067</v>
       </c>
       <c r="L101">
-        <v>-25.43769860536479</v>
+        <v>-25.43769860536478</v>
       </c>
       <c r="M101">
-        <v>36.24798699608043</v>
+        <v>36.24798699608041</v>
       </c>
       <c r="N101">
-        <v>4.541965517926383e-009</v>
+        <v>4.541965517926413e-09</v>
       </c>
       <c r="O101">
         <v>0.3728632326601361</v>
@@ -4484,34 +4484,34 @@
         <v>3.914735043151315</v>
       </c>
       <c r="B102">
-        <v>0.09334553069011099</v>
+        <v>0.09334553069011101</v>
       </c>
       <c r="D102">
         <v>-0.007933733936055704</v>
       </c>
       <c r="E102">
-        <v>-0.04114506783422166</v>
+        <v>-0.04114506783422172</v>
       </c>
       <c r="G102">
-        <v>-0.03010201581747484</v>
+        <v>-0.03010201581747483</v>
       </c>
       <c r="I102">
-        <v>0.4439439466951382</v>
+        <v>0.4439439466951381</v>
       </c>
       <c r="J102">
         <v>6</v>
       </c>
       <c r="K102">
-        <v>20.11584238456361</v>
+        <v>20.1158423845636</v>
       </c>
       <c r="L102">
-        <v>-25.00091553835799</v>
+        <v>-25.00091553835798</v>
       </c>
       <c r="M102">
-        <v>36.68477006308723</v>
+        <v>36.68477006308721</v>
       </c>
       <c r="N102">
-        <v>3.65088030630628e-009</v>
+        <v>3.650880306306305e-09</v>
       </c>
       <c r="O102">
         <v>0.3645073676515864</v>
@@ -4528,19 +4528,19 @@
         <v>0.07794453431294404</v>
       </c>
       <c r="C103">
-        <v>0.0428620972957494</v>
+        <v>0.04286209729574941</v>
       </c>
       <c r="D103">
-        <v>-0.02120936291666341</v>
+        <v>-0.0212093629166634</v>
       </c>
       <c r="E103">
-        <v>-0.03404664075954877</v>
+        <v>-0.03404664075954882</v>
       </c>
       <c r="G103">
-        <v>-0.02443711788811861</v>
+        <v>-0.02443711788811859</v>
       </c>
       <c r="I103">
-        <v>0.4778986780407536</v>
+        <v>0.4778986780407538</v>
       </c>
       <c r="J103">
         <v>7</v>
@@ -4552,13 +4552,13 @@
         <v>-23.83093002672294</v>
       </c>
       <c r="M103">
-        <v>37.85475557472228</v>
+        <v>37.85475557472225</v>
       </c>
       <c r="N103">
-        <v>2.033941553608245e-009</v>
+        <v>2.033941553608274e-09</v>
       </c>
       <c r="O103">
-        <v>0.3812132480483006</v>
+        <v>0.3812132480483008</v>
       </c>
       <c r="P103" t="b">
         <v>1</v>
@@ -4569,34 +4569,34 @@
         <v>3.914735043151315</v>
       </c>
       <c r="C104">
-        <v>0.1310772013654684</v>
+        <v>0.1310772013654685</v>
       </c>
       <c r="E104">
-        <v>-0.01904155719184658</v>
+        <v>-0.01904155719184661</v>
       </c>
       <c r="H104">
-        <v>-0.07941922805157571</v>
+        <v>-0.07941922805157565</v>
       </c>
       <c r="I104">
-        <v>0.3615219520537565</v>
+        <v>0.361521952053756</v>
       </c>
       <c r="J104">
         <v>5</v>
       </c>
       <c r="K104">
-        <v>17.83524225365042</v>
+        <v>17.8352422536504</v>
       </c>
       <c r="L104">
-        <v>-23.44826228507862</v>
+        <v>-23.44826228507858</v>
       </c>
       <c r="M104">
-        <v>38.2374233163666</v>
+        <v>38.23742331636661</v>
       </c>
       <c r="N104">
-        <v>1.679744488526483e-009</v>
+        <v>1.679744488526477e-09</v>
       </c>
       <c r="O104">
-        <v>0.2954724988179381</v>
+        <v>0.2954724988179377</v>
       </c>
       <c r="P104" t="b">
         <v>1</v>
@@ -4607,19 +4607,19 @@
         <v>3.914735043151315</v>
       </c>
       <c r="C105">
-        <v>0.1141026140156989</v>
+        <v>0.114102614015699</v>
       </c>
       <c r="E105">
-        <v>-0.008877803063662274</v>
+        <v>-0.008877803063662305</v>
       </c>
       <c r="G105">
-        <v>-0.04521529618102972</v>
+        <v>-0.04521529618102966</v>
       </c>
       <c r="H105">
-        <v>-0.07833985572693551</v>
+        <v>-0.0783398557269355</v>
       </c>
       <c r="I105">
-        <v>0.406920533072398</v>
+        <v>0.4069205330723982</v>
       </c>
       <c r="J105">
         <v>6</v>
@@ -4631,13 +4631,13 @@
         <v>-22.87375884086402</v>
       </c>
       <c r="M105">
-        <v>38.8119267605812</v>
+        <v>38.81192676058117</v>
       </c>
       <c r="N105">
-        <v>1.260350642035206e-009</v>
+        <v>1.260350642035223e-09</v>
       </c>
       <c r="O105">
-        <v>0.3221948949398834</v>
+        <v>0.3221948949398836</v>
       </c>
       <c r="P105" t="b">
         <v>1</v>
@@ -4648,31 +4648,31 @@
         <v>3.914735043151315</v>
       </c>
       <c r="C106">
-        <v>0.06549397468557157</v>
+        <v>0.06549397468557164</v>
       </c>
       <c r="G106">
-        <v>-0.05177121865400695</v>
+        <v>-0.05177121865400697</v>
       </c>
       <c r="I106">
-        <v>0.2909464651129805</v>
+        <v>0.2909464651129806</v>
       </c>
       <c r="J106">
         <v>4</v>
       </c>
       <c r="K106">
-        <v>16.1053205921318</v>
+        <v>16.10532059213179</v>
       </c>
       <c r="L106">
         <v>-22.78206975569216</v>
       </c>
       <c r="M106">
-        <v>38.90361584575306</v>
+        <v>38.90361584575304</v>
       </c>
       <c r="N106">
-        <v>1.203874886948147e-009</v>
+        <v>1.203874886948159e-09</v>
       </c>
       <c r="O106">
-        <v>0.2436762294538458</v>
+        <v>0.243676229453846</v>
       </c>
       <c r="P106" t="b">
         <v>0</v>
@@ -4683,28 +4683,28 @@
         <v>3.914735043151315</v>
       </c>
       <c r="C107">
-        <v>0.08830283856579321</v>
+        <v>0.08830283856579331</v>
       </c>
       <c r="I107">
-        <v>0.2278327719922516</v>
+        <v>0.2278327719922514</v>
       </c>
       <c r="J107">
         <v>3</v>
       </c>
       <c r="K107">
-        <v>14.69836374615284</v>
+        <v>14.69836374615283</v>
       </c>
       <c r="L107">
-        <v>-22.56914128540913</v>
+        <v>-22.56914128540911</v>
       </c>
       <c r="M107">
-        <v>39.11654431603609</v>
+        <v>39.11654431603608</v>
       </c>
       <c r="N107">
-        <v>1.082292191809201e-009</v>
+        <v>1.082292191809204e-09</v>
       </c>
       <c r="O107">
-        <v>0.2029241517339372</v>
+        <v>0.202924151733937</v>
       </c>
       <c r="P107" t="b">
         <v>0</v>
@@ -4715,34 +4715,34 @@
         <v>3.914735043151315</v>
       </c>
       <c r="C108">
-        <v>0.07749411310228699</v>
+        <v>0.07749411310228708</v>
       </c>
       <c r="D108">
-        <v>-0.04500999784909502</v>
+        <v>-0.04500999784909504</v>
       </c>
       <c r="G108">
-        <v>-0.06121292814363313</v>
+        <v>-0.06121292814363315</v>
       </c>
       <c r="I108">
-        <v>0.3404119463918814</v>
+        <v>0.3404119463918813</v>
       </c>
       <c r="J108">
         <v>5</v>
       </c>
       <c r="K108">
-        <v>17.2985272055548</v>
+        <v>17.29852720555479</v>
       </c>
       <c r="L108">
-        <v>-22.37483218888738</v>
+        <v>-22.37483218888736</v>
       </c>
       <c r="M108">
-        <v>39.31085341255784</v>
+        <v>39.31085341255783</v>
       </c>
       <c r="N108">
-        <v>9.820889871933062e-010</v>
+        <v>9.820889871933095e-10</v>
       </c>
       <c r="O108">
-        <v>0.2721786994669037</v>
+        <v>0.2721786994669035</v>
       </c>
       <c r="P108" t="b">
         <v>1</v>
@@ -4753,10 +4753,10 @@
         <v>3.914735043151315</v>
       </c>
       <c r="C109">
-        <v>0.1001976407613375</v>
+        <v>0.1001976407613376</v>
       </c>
       <c r="D109">
-        <v>-0.03313051612437683</v>
+        <v>-0.03313051612437684</v>
       </c>
       <c r="I109">
         <v>0.2557704638649164</v>
@@ -4765,16 +4765,16 @@
         <v>4</v>
       </c>
       <c r="K109">
-        <v>15.30641579946738</v>
+        <v>15.30641579946737</v>
       </c>
       <c r="L109">
-        <v>-21.18426017036333</v>
+        <v>-21.18426017036332</v>
       </c>
       <c r="M109">
-        <v>40.50142543108189</v>
+        <v>40.50142543108188</v>
       </c>
       <c r="N109">
-        <v>5.415286173356847e-010</v>
+        <v>5.415286173356883e-10</v>
       </c>
       <c r="O109">
         <v>0.2061551614559108</v>
@@ -4788,10 +4788,10 @@
         <v>3.914735043151315</v>
       </c>
       <c r="C110">
-        <v>0.07716214501003529</v>
+        <v>0.07716214501003535</v>
       </c>
       <c r="E110">
-        <v>-0.03128429734347116</v>
+        <v>-0.03128429734347118</v>
       </c>
       <c r="I110">
         <v>0.2528031889006548</v>
@@ -4803,13 +4803,13 @@
         <v>15.24076039301536</v>
       </c>
       <c r="L110">
-        <v>-21.0529493574593</v>
+        <v>-21.05294935745928</v>
       </c>
       <c r="M110">
-        <v>40.63273624398592</v>
+        <v>40.63273624398591</v>
       </c>
       <c r="N110">
-        <v>5.071163715095628e-010</v>
+        <v>5.071163715095663e-10</v>
       </c>
       <c r="O110">
         <v>0.2029900681606984</v>
@@ -4832,16 +4832,16 @@
         <v>3</v>
       </c>
       <c r="K111">
-        <v>13.90789373222083</v>
+        <v>13.90789373222082</v>
       </c>
       <c r="L111">
-        <v>-20.9882012575451</v>
+        <v>-20.98820125754509</v>
       </c>
       <c r="M111">
-        <v>40.69748434390012</v>
+        <v>40.6974843439001</v>
       </c>
       <c r="N111">
-        <v>4.909618650722182e-010</v>
+        <v>4.909618650722215e-10</v>
       </c>
       <c r="O111">
         <v>0.1638089505358086</v>
@@ -4855,16 +4855,16 @@
         <v>3.914735043151315</v>
       </c>
       <c r="C112">
-        <v>0.07145857969540488</v>
+        <v>0.07145857969540495</v>
       </c>
       <c r="D112">
-        <v>-0.0515610264824592</v>
+        <v>-0.05156102648245922</v>
       </c>
       <c r="E112">
-        <v>-0.03149985495349023</v>
+        <v>-0.03149985495349029</v>
       </c>
       <c r="G112">
-        <v>-0.05478962673011739</v>
+        <v>-0.05478962673011738</v>
       </c>
       <c r="I112">
         <v>0.3632480749848385</v>
@@ -4873,16 +4873,16 @@
         <v>6</v>
       </c>
       <c r="K112">
-        <v>17.87991034703092</v>
+        <v>17.87991034703091</v>
       </c>
       <c r="L112">
-        <v>-20.52905146329261</v>
+        <v>-20.5290514632926</v>
       </c>
       <c r="M112">
-        <v>41.15663413815261</v>
+        <v>41.1566341381526</v>
       </c>
       <c r="N112">
-        <v>3.902515611510542e-010</v>
+        <v>3.902515611510569e-10</v>
       </c>
       <c r="O112">
         <v>0.2722835142683868</v>
@@ -4896,13 +4896,13 @@
         <v>3.914735043151315</v>
       </c>
       <c r="C113">
-        <v>0.06039910304248294</v>
+        <v>0.06039910304248303</v>
       </c>
       <c r="E113">
-        <v>-0.02062265764763708</v>
+        <v>-0.02062265764763711</v>
       </c>
       <c r="G113">
-        <v>-0.04666626561965696</v>
+        <v>-0.04666626561965691</v>
       </c>
       <c r="I113">
         <v>0.3011836137951439</v>
@@ -4911,16 +4911,16 @@
         <v>5</v>
       </c>
       <c r="K113">
-        <v>16.3452801619627</v>
+        <v>16.34528016196269</v>
       </c>
       <c r="L113">
-        <v>-20.46833810170318</v>
+        <v>-20.46833810170316</v>
       </c>
       <c r="M113">
-        <v>41.21734749974205</v>
+        <v>41.21734749974203</v>
       </c>
       <c r="N113">
-        <v>3.785828271709691e-010</v>
+        <v>3.785828271709717e-10</v>
       </c>
       <c r="O113">
         <v>0.2288922634980899</v>
@@ -4934,13 +4934,13 @@
         <v>3.914735043151315</v>
       </c>
       <c r="C114">
-        <v>0.08896419656865141</v>
+        <v>0.08896419656865148</v>
       </c>
       <c r="D114">
-        <v>-0.04353617132136569</v>
+        <v>-0.04353617132136571</v>
       </c>
       <c r="E114">
-        <v>-0.04203564854529909</v>
+        <v>-0.04203564854529913</v>
       </c>
       <c r="I114">
         <v>0.2980970549631442</v>
@@ -4952,16 +4952,16 @@
         <v>16.27256280592697</v>
       </c>
       <c r="L114">
-        <v>-20.32290338963173</v>
+        <v>-20.32290338963171</v>
       </c>
       <c r="M114">
-        <v>41.3627822118135</v>
+        <v>41.36278221181348</v>
       </c>
       <c r="N114">
-        <v>3.52030395578087e-010</v>
+        <v>3.520303955780893e-10</v>
       </c>
       <c r="O114">
-        <v>0.225486405476573</v>
+        <v>0.2254864054765729</v>
       </c>
       <c r="P114" t="b">
         <v>1</v>
@@ -4972,31 +4972,31 @@
         <v>3.914735043151315</v>
       </c>
       <c r="E115">
-        <v>-0.03439760229052088</v>
+        <v>-0.03439760229052094</v>
       </c>
       <c r="G115">
-        <v>-0.0683671381838742</v>
+        <v>-0.06836713818387417</v>
       </c>
       <c r="I115">
-        <v>0.2201208357624199</v>
+        <v>0.2201208357624198</v>
       </c>
       <c r="J115">
         <v>4</v>
       </c>
       <c r="K115">
-        <v>14.53438927260984</v>
+        <v>14.53438927260983</v>
       </c>
       <c r="L115">
-        <v>-19.64020711664826</v>
+        <v>-19.64020711664823</v>
       </c>
       <c r="M115">
-        <v>42.04547848479697</v>
+        <v>42.04547848479696</v>
       </c>
       <c r="N115">
-        <v>2.502272203431917e-010</v>
+        <v>2.502272203431925e-10</v>
       </c>
       <c r="O115">
-        <v>0.1681288914799146</v>
+        <v>0.1681288914799145</v>
       </c>
       <c r="P115" t="b">
         <v>1</v>
@@ -5007,31 +5007,31 @@
         <v>3.914735043151315</v>
       </c>
       <c r="D116">
-        <v>-0.02636282174971143</v>
+        <v>-0.02636282174971145</v>
       </c>
       <c r="G116">
-        <v>-0.08925262405070793</v>
+        <v>-0.08925262405070798</v>
       </c>
       <c r="I116">
-        <v>0.2080726638830712</v>
+        <v>0.208072663883071</v>
       </c>
       <c r="J116">
         <v>4</v>
       </c>
       <c r="K116">
-        <v>14.28143354365412</v>
+        <v>14.28143354365411</v>
       </c>
       <c r="L116">
-        <v>-19.13429565873681</v>
+        <v>-19.13429565873679</v>
       </c>
       <c r="M116">
-        <v>42.55138994270841</v>
+        <v>42.5513899427084</v>
       </c>
       <c r="N116">
-        <v>1.943020015166262e-010</v>
+        <v>1.943020015166269e-10</v>
       </c>
       <c r="O116">
-        <v>0.1552775081419426</v>
+        <v>0.1552775081419424</v>
       </c>
       <c r="P116" t="b">
         <v>1</v>
@@ -5042,31 +5042,31 @@
         <v>3.914735043151315</v>
       </c>
       <c r="G117">
-        <v>-0.0841513568367484</v>
+        <v>-0.08415135683674839</v>
       </c>
       <c r="H117">
-        <v>-0.01532342765527985</v>
+        <v>-0.01532342765527983</v>
       </c>
       <c r="I117">
-        <v>0.1964376280428516</v>
+        <v>0.1964376280428515</v>
       </c>
       <c r="J117">
         <v>4</v>
       </c>
       <c r="K117">
-        <v>14.04077828448787</v>
+        <v>14.04077828448786</v>
       </c>
       <c r="L117">
-        <v>-18.65298514040432</v>
+        <v>-18.6529851404043</v>
       </c>
       <c r="M117">
         <v>43.0327004610409</v>
       </c>
       <c r="N117">
-        <v>1.527432486417857e-010</v>
+        <v>1.527432486417862e-10</v>
       </c>
       <c r="O117">
-        <v>0.1428668032457083</v>
+        <v>0.1428668032457082</v>
       </c>
       <c r="P117" t="b">
         <v>1</v>
@@ -5077,13 +5077,13 @@
         <v>3.914735043151315</v>
       </c>
       <c r="D118">
-        <v>-0.03758401240853791</v>
+        <v>-0.03758401240853796</v>
       </c>
       <c r="E118">
-        <v>-0.04416479077021741</v>
+        <v>-0.04416479077021749</v>
       </c>
       <c r="G118">
-        <v>-0.07718487093370179</v>
+        <v>-0.07718487093370181</v>
       </c>
       <c r="I118">
         <v>0.254541542974752</v>
@@ -5092,16 +5092,16 @@
         <v>5</v>
       </c>
       <c r="K118">
-        <v>15.27919238170384</v>
+        <v>15.27919238170383</v>
       </c>
       <c r="L118">
-        <v>-18.33616254118545</v>
+        <v>-18.33616254118544</v>
       </c>
       <c r="M118">
-        <v>43.34952306025977</v>
+        <v>43.34952306025976</v>
       </c>
       <c r="N118">
-        <v>1.303661589713161e-010</v>
+        <v>1.30366158971317e-10</v>
       </c>
       <c r="O118">
         <v>0.1774251508686918</v>
@@ -5115,28 +5115,28 @@
         <v>3.914735043151315</v>
       </c>
       <c r="E119">
-        <v>-0.05876261345278792</v>
+        <v>-0.05876261345278797</v>
       </c>
       <c r="I119">
-        <v>0.1008948665954141</v>
+        <v>0.1008948665954138</v>
       </c>
       <c r="J119">
         <v>3</v>
       </c>
       <c r="K119">
-        <v>12.18708306254352</v>
+        <v>12.1870830625435</v>
       </c>
       <c r="L119">
-        <v>-17.54657991819049</v>
+        <v>-17.54657991819046</v>
       </c>
       <c r="M119">
         <v>44.13910568325474</v>
       </c>
       <c r="N119">
-        <v>8.784340908932269e-011</v>
+        <v>8.784340908932266e-11</v>
       </c>
       <c r="O119">
-        <v>0.07189147519526618</v>
+        <v>0.07189147519526584</v>
       </c>
       <c r="P119" t="b">
         <v>0</v>
@@ -5147,34 +5147,34 @@
         <v>3.914735043151315</v>
       </c>
       <c r="E120">
-        <v>-0.03449731251048937</v>
+        <v>-0.03449731251048942</v>
       </c>
       <c r="G120">
-        <v>-0.07190401693622346</v>
+        <v>-0.07190401693622343</v>
       </c>
       <c r="H120">
-        <v>-0.01552762387646087</v>
+        <v>-0.01552762387646089</v>
       </c>
       <c r="I120">
-        <v>0.2267926168955483</v>
+        <v>0.2267926168955481</v>
       </c>
       <c r="J120">
         <v>5</v>
       </c>
       <c r="K120">
-        <v>14.67615222337523</v>
+        <v>14.67615222337521</v>
       </c>
       <c r="L120">
-        <v>-17.13008222452823</v>
+        <v>-17.1300822245282</v>
       </c>
       <c r="M120">
         <v>44.55560337691699</v>
       </c>
       <c r="N120">
-        <v>7.132928271643593e-011</v>
+        <v>7.13292827164359e-11</v>
       </c>
       <c r="O120">
-        <v>0.1468056462295706</v>
+        <v>0.1468056462295703</v>
       </c>
       <c r="P120" t="b">
         <v>1</v>
@@ -5185,13 +5185,13 @@
         <v>3.914735043151315</v>
       </c>
       <c r="D121">
-        <v>-0.03282205538883352</v>
+        <v>-0.03282205538883354</v>
       </c>
       <c r="G121">
-        <v>-0.0968286334600995</v>
+        <v>-0.09682863346009955</v>
       </c>
       <c r="H121">
-        <v>-0.02374232122090095</v>
+        <v>-0.02374232122090097</v>
       </c>
       <c r="I121">
         <v>0.2225830547602884</v>
@@ -5200,16 +5200,16 @@
         <v>5</v>
       </c>
       <c r="K121">
-        <v>14.58656515241958</v>
+        <v>14.58656515241957</v>
       </c>
       <c r="L121">
-        <v>-16.95090808261693</v>
+        <v>-16.95090808261691</v>
       </c>
       <c r="M121">
-        <v>44.7347775188283</v>
+        <v>44.73477751882828</v>
       </c>
       <c r="N121">
-        <v>6.521698032361779e-011</v>
+        <v>6.521698032361823e-11</v>
       </c>
       <c r="O121">
         <v>0.1421606121492838</v>
@@ -5229,16 +5229,16 @@
         <v>2</v>
       </c>
       <c r="K122">
-        <v>10.43222050504035</v>
+        <v>10.43222050504034</v>
       </c>
       <c r="L122">
-        <v>-16.46444101008071</v>
+        <v>-16.46444101008069</v>
       </c>
       <c r="M122">
-        <v>45.22124459136452</v>
+        <v>45.2212445913645</v>
       </c>
       <c r="N122">
-        <v>5.113587640570801e-011</v>
+        <v>5.113587640570835e-11</v>
       </c>
       <c r="O122">
         <v>0</v>
@@ -5252,16 +5252,16 @@
         <v>3.914735043151315</v>
       </c>
       <c r="D123">
-        <v>-0.0455808824587316</v>
+        <v>-0.04558088245873165</v>
       </c>
       <c r="E123">
-        <v>-0.0464182268654054</v>
+        <v>-0.04641822686540548</v>
       </c>
       <c r="G123">
-        <v>-0.0852770973810444</v>
+        <v>-0.08527709738104444</v>
       </c>
       <c r="H123">
-        <v>-0.02728973290159772</v>
+        <v>-0.02728973290159773</v>
       </c>
       <c r="I123">
         <v>0.273590973457929</v>
@@ -5270,16 +5270,16 @@
         <v>6</v>
       </c>
       <c r="K123">
-        <v>15.70631392356656</v>
+        <v>15.70631392356655</v>
       </c>
       <c r="L123">
-        <v>-16.18185861636389</v>
+        <v>-16.18185861636387</v>
       </c>
       <c r="M123">
-        <v>45.50382698508133</v>
+        <v>45.50382698508132</v>
       </c>
       <c r="N123">
-        <v>4.439803165275177e-011</v>
+        <v>4.439803165275208e-11</v>
       </c>
       <c r="O123">
         <v>0.1698182553804903</v>
@@ -5293,31 +5293,31 @@
         <v>3.914735043151315</v>
       </c>
       <c r="D124">
-        <v>-0.01966066831149535</v>
+        <v>-0.01966066831149537</v>
       </c>
       <c r="E124">
-        <v>-0.06551583667713497</v>
+        <v>-0.06551583667713505</v>
       </c>
       <c r="I124">
-        <v>0.110856706117672</v>
+        <v>0.1108567061176718</v>
       </c>
       <c r="J124">
         <v>4</v>
       </c>
       <c r="K124">
-        <v>12.37091887633871</v>
+        <v>12.3709188763387</v>
       </c>
       <c r="L124">
-        <v>-15.31326632410599</v>
+        <v>-15.31326632410597</v>
       </c>
       <c r="M124">
         <v>46.37241927733923</v>
       </c>
       <c r="N124">
-        <v>2.875751114046416e-011</v>
+        <v>2.875751114046425e-11</v>
       </c>
       <c r="O124">
-        <v>0.05158048652551672</v>
+        <v>0.05158048652551661</v>
       </c>
       <c r="P124" t="b">
         <v>1</v>
@@ -5328,31 +5328,31 @@
         <v>3.914735043151315</v>
       </c>
       <c r="E125">
-        <v>-0.05886063515665968</v>
+        <v>-0.05886063515665972</v>
       </c>
       <c r="H125">
-        <v>-0.00111898541710017</v>
+        <v>-0.001118985417100173</v>
       </c>
       <c r="I125">
-        <v>0.1009311719172712</v>
+        <v>0.1009311719172711</v>
       </c>
       <c r="J125">
         <v>4</v>
       </c>
       <c r="K125">
-        <v>12.18774933602267</v>
+        <v>12.18774933602266</v>
       </c>
       <c r="L125">
-        <v>-14.94692724347392</v>
+        <v>-14.9469272434739</v>
       </c>
       <c r="M125">
-        <v>46.73875835797131</v>
+        <v>46.73875835797129</v>
       </c>
       <c r="N125">
-        <v>2.39442796511482e-011</v>
+        <v>2.394427965114836e-11</v>
       </c>
       <c r="O125">
-        <v>0.04099325004508925</v>
+        <v>0.04099325004508914</v>
       </c>
       <c r="P125" t="b">
         <v>1</v>
@@ -5363,28 +5363,28 @@
         <v>3.914735043151315</v>
       </c>
       <c r="H126">
-        <v>0.004037131598241901</v>
+        <v>0.00403713159824189</v>
       </c>
       <c r="I126">
-        <v>0.000476225534277952</v>
+        <v>0.00047622553427773</v>
       </c>
       <c r="J126">
         <v>3</v>
       </c>
       <c r="K126">
-        <v>10.44008009797394</v>
+        <v>10.44008009797392</v>
       </c>
       <c r="L126">
-        <v>-14.05257398905132</v>
+        <v>-14.0525739890513</v>
       </c>
       <c r="M126">
         <v>47.6331116123939</v>
       </c>
       <c r="N126">
-        <v>1.531071366142355e-011</v>
+        <v>1.53107136614236e-11</v>
       </c>
       <c r="O126">
-        <v>-0.03176647686784206</v>
+        <v>-0.03176647686784229</v>
       </c>
       <c r="P126" t="b">
         <v>1</v>
@@ -5395,28 +5395,28 @@
         <v>3.914735043151315</v>
       </c>
       <c r="D127">
-        <v>0.00284330066863669</v>
+        <v>0.002843300668636718</v>
       </c>
       <c r="I127">
-        <v>0.0002362177015446942</v>
+        <v>0.0002362177015442501</v>
       </c>
       <c r="J127">
         <v>3</v>
       </c>
       <c r="K127">
-        <v>10.43611855752847</v>
+        <v>10.43611855752845</v>
       </c>
       <c r="L127">
-        <v>-14.04465090816038</v>
+        <v>-14.04465090816035</v>
       </c>
       <c r="M127">
         <v>47.64103469328484</v>
       </c>
       <c r="N127">
-        <v>1.525017963317289e-011</v>
+        <v>1.525017963317288e-11</v>
       </c>
       <c r="O127">
-        <v>-0.03201422688872802</v>
+        <v>-0.03201422688872846</v>
       </c>
       <c r="P127" t="b">
         <v>1</v>
@@ -5427,34 +5427,34 @@
         <v>3.914735043151315</v>
       </c>
       <c r="D128">
-        <v>-0.02084253499589791</v>
+        <v>-0.02084253499589793</v>
       </c>
       <c r="E128">
-        <v>-0.06638361620164607</v>
+        <v>-0.06638361620164615</v>
       </c>
       <c r="H128">
-        <v>-0.005272009215635864</v>
+        <v>-0.005272009215635862</v>
       </c>
       <c r="I128">
-        <v>0.1116265942601177</v>
+        <v>0.1116265942601176</v>
       </c>
       <c r="J128">
         <v>5</v>
       </c>
       <c r="K128">
-        <v>12.38521202491775</v>
+        <v>12.38521202491774</v>
       </c>
       <c r="L128">
-        <v>-12.54820182761328</v>
+        <v>-12.54820182761326</v>
       </c>
       <c r="M128">
-        <v>49.13748377383195</v>
+        <v>49.13748377383193</v>
       </c>
       <c r="N128">
-        <v>7.216475977101419e-012</v>
+        <v>7.216475977101469e-12</v>
       </c>
       <c r="O128">
-        <v>0.01972589711461259</v>
+        <v>0.01972589711461248</v>
       </c>
       <c r="P128" t="b">
         <v>1</v>
@@ -5465,31 +5465,31 @@
         <v>3.914735043151315</v>
       </c>
       <c r="D129">
-        <v>0.003621865678889922</v>
+        <v>0.003621865678889955</v>
       </c>
       <c r="H129">
-        <v>0.004644297273358443</v>
+        <v>0.004644297273358467</v>
       </c>
       <c r="I129">
-        <v>0.0008487474876431866</v>
+        <v>0.0008487474876428536</v>
       </c>
       <c r="J129">
         <v>4</v>
       </c>
       <c r="K129">
-        <v>10.44623078502284</v>
+        <v>10.44623078502283</v>
       </c>
       <c r="L129">
-        <v>-11.46389014147425</v>
+        <v>-11.46389014147423</v>
       </c>
       <c r="M129">
-        <v>50.22179545997097</v>
+        <v>50.22179545997096</v>
       </c>
       <c r="N129">
-        <v>4.196332371321588e-012</v>
+        <v>4.196332371321601e-12</v>
       </c>
       <c r="O129">
-        <v>-0.06576133601318057</v>
+        <v>-0.06576133601318102</v>
       </c>
       <c r="P129" t="b">
         <v>1</v>
